--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 07,07,25ц-выезд 09,07.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 07,07,25ц-выезд 09,07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050567D5-DC09-4538-B76D-97F67CC5A712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D84D89-20FA-4E93-A369-33DA5EEBA0D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1973,14 +1973,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L1700"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G182" sqref="G182"/>
+      <pane ySplit="9" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I188" sqref="I188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="K9" s="38"/>
     </row>
-    <row r="10" spans="1:12" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="74"/>
       <c r="B10" s="74" t="s">
         <v>21</v>
@@ -2123,7 +2123,7 @@
       <c r="I10" s="74"/>
       <c r="J10" s="75"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="str">
         <f>RIGHT(D11:D175,4)</f>
         <v>5246</v>
@@ -2154,7 +2154,7 @@
       <c r="J11" s="39"/>
       <c r="L11" s="94"/>
     </row>
-    <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="str">
         <f>RIGHT(D12:D176,4)</f>
         <v>4555</v>
@@ -2179,7 +2179,7 @@
       <c r="J12" s="39"/>
       <c r="L12" s="94"/>
     </row>
-    <row r="13" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="str">
         <f>RIGHT(D13:D176,4)</f>
         <v>5992</v>
@@ -2227,7 +2227,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="39"/>
     </row>
-    <row r="15" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="str">
         <f>RIGHT(D15:D178,4)</f>
         <v>7126</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="J17" s="39"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="str">
         <f t="shared" si="0"/>
         <v>6324</v>
@@ -2333,7 +2333,7 @@
       <c r="I18" s="14"/>
       <c r="J18" s="39"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="str">
         <f t="shared" si="0"/>
         <v>6839</v>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="J22" s="39"/>
     </row>
-    <row r="23" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="str">
         <f t="shared" si="0"/>
         <v>4574</v>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="J24" s="39"/>
     </row>
-    <row r="25" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="str">
         <f>RIGHT(D25:D189,4)</f>
         <v>6862</v>
@@ -2527,7 +2527,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="39"/>
     </row>
-    <row r="26" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="str">
         <f>RIGHT(D26:D189,4)</f>
         <v>6341</v>
@@ -2551,7 +2551,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="39"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="str">
         <f>RIGHT(D27:D190,4)</f>
         <v>5247</v>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="J29" s="39"/>
     </row>
-    <row r="30" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="str">
         <f t="shared" si="1"/>
         <v>6801</v>
@@ -2667,7 +2667,7 @@
       <c r="I30" s="14"/>
       <c r="J30" s="39"/>
     </row>
-    <row r="31" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93" t="str">
         <f t="shared" si="1"/>
         <v>6802</v>
@@ -2691,7 +2691,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="39"/>
     </row>
-    <row r="32" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93" t="str">
         <f t="shared" si="1"/>
         <v>6877</v>
@@ -2715,7 +2715,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="39"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93" t="str">
         <f t="shared" si="1"/>
         <v>6888</v>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="J34" s="39"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="str">
         <f>RIGHT(D35:D197,4)</f>
         <v>6159</v>
@@ -2795,7 +2795,7 @@
       <c r="I35" s="14"/>
       <c r="J35" s="39"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="str">
         <f>RIGHT(D36:D197,4)</f>
         <v>6158</v>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="J37" s="39"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="93" t="str">
         <f>RIGHT(D38:D197,4)</f>
         <v>6353</v>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="J38" s="39"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="93" t="str">
         <f>RIGHT(D39:D198,4)</f>
         <v/>
@@ -2898,7 +2898,7 @@
       <c r="I39" s="74"/>
       <c r="J39" s="75"/>
     </row>
-    <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="93" t="str">
         <f>RIGHT(D40:D201,4)</f>
         <v>6870</v>
@@ -2923,7 +2923,7 @@
       <c r="J40" s="39"/>
       <c r="K40" s="82"/>
     </row>
-    <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="93" t="str">
         <f>RIGHT(D41:D203,4)</f>
         <v>7038</v>
@@ -2948,7 +2948,7 @@
       <c r="J41" s="39"/>
       <c r="K41" s="82"/>
     </row>
-    <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="str">
         <f>RIGHT(D42:D204,4)</f>
         <v>7040</v>
@@ -2975,7 +2975,7 @@
       <c r="J42" s="39"/>
       <c r="K42" s="82"/>
     </row>
-    <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="93" t="str">
         <f>RIGHT(D43:D203,4)</f>
         <v>7075</v>
@@ -3025,7 +3025,7 @@
       <c r="J44" s="39"/>
       <c r="K44" s="82"/>
     </row>
-    <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="93" t="str">
         <f>RIGHT(D45:D202,4)</f>
         <v>6253</v>
@@ -3050,7 +3050,7 @@
       <c r="J45" s="39"/>
       <c r="K45" s="82"/>
     </row>
-    <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="93" t="str">
         <f>RIGHT(D46:D201,4)</f>
         <v>6602</v>
@@ -3075,7 +3075,7 @@
       <c r="J46" s="39"/>
       <c r="K46" s="82"/>
     </row>
-    <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="93" t="str">
         <f>RIGHT(D47:D204,4)</f>
         <v>6768</v>
@@ -3100,7 +3100,7 @@
       <c r="J47" s="39"/>
       <c r="K47" s="82"/>
     </row>
-    <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93" t="str">
         <f>RIGHT(D48:D205,4)</f>
         <v>6770</v>
@@ -3149,7 +3149,7 @@
       <c r="I49" s="14"/>
       <c r="J49" s="39"/>
     </row>
-    <row r="50" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="93" t="str">
         <f t="shared" ref="A50:A55" si="2">RIGHT(D50:D213,4)</f>
         <v>7074</v>
@@ -3197,7 +3197,7 @@
       <c r="I51" s="14"/>
       <c r="J51" s="39"/>
     </row>
-    <row r="52" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93" t="str">
         <f t="shared" si="2"/>
         <v>6759</v>
@@ -3273,7 +3273,7 @@
       <c r="I54" s="14"/>
       <c r="J54" s="39"/>
     </row>
-    <row r="55" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93" t="str">
         <f t="shared" si="2"/>
         <v>7276</v>
@@ -3299,7 +3299,7 @@
       <c r="I55" s="14"/>
       <c r="J55" s="39"/>
     </row>
-    <row r="56" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="str">
         <f>RIGHT(D56:D216,4)</f>
         <v>6901</v>
@@ -3325,7 +3325,7 @@
       <c r="I56" s="14"/>
       <c r="J56" s="39"/>
     </row>
-    <row r="57" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="93" t="str">
         <f>RIGHT(D57:D217,4)</f>
         <v>6962</v>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="J60" s="39"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="93" t="str">
         <f>RIGHT(D61:D217,4)</f>
         <v>6762</v>
@@ -3463,7 +3463,7 @@
       <c r="I61" s="14"/>
       <c r="J61" s="39"/>
     </row>
-    <row r="62" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="93" t="str">
         <f>RIGHT(D62:D217,4)</f>
         <v>5820</v>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="J62" s="39"/>
     </row>
-    <row r="63" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="93" t="str">
         <f>RIGHT(D63:D218,4)</f>
         <v>7082</v>
@@ -3513,7 +3513,7 @@
       <c r="I63" s="14"/>
       <c r="J63" s="39"/>
     </row>
-    <row r="64" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93" t="str">
         <f>RIGHT(D64:D219,4)</f>
         <v>6764</v>
@@ -3537,7 +3537,7 @@
       <c r="I64" s="14"/>
       <c r="J64" s="39"/>
     </row>
-    <row r="65" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="str">
         <f>RIGHT(D65:D221,4)</f>
         <v>6761</v>
@@ -3561,7 +3561,7 @@
       <c r="I65" s="14"/>
       <c r="J65" s="39"/>
     </row>
-    <row r="66" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="93" t="str">
         <f>RIGHT(D66:D222,4)</f>
         <v>6767</v>
@@ -3609,7 +3609,7 @@
       <c r="I67" s="14"/>
       <c r="J67" s="39"/>
     </row>
-    <row r="68" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="93" t="str">
         <f>RIGHT(D68:D223,4)</f>
         <v>6909</v>
@@ -3661,7 +3661,7 @@
       <c r="I69" s="14"/>
       <c r="J69" s="39"/>
     </row>
-    <row r="70" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93" t="str">
         <f>RIGHT(D70:D224,4)</f>
         <v>7250</v>
@@ -3687,7 +3687,7 @@
       <c r="I70" s="14"/>
       <c r="J70" s="39"/>
     </row>
-    <row r="71" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93" t="str">
         <f>RIGHT(D71:D224,4)</f>
         <v>6987</v>
@@ -3769,7 +3769,7 @@
       <c r="I73" s="14"/>
       <c r="J73" s="39"/>
     </row>
-    <row r="74" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="93" t="str">
         <f>RIGHT(D74:D224,4)</f>
         <v>7244</v>
@@ -3793,7 +3793,7 @@
       <c r="I74" s="14"/>
       <c r="J74" s="39"/>
     </row>
-    <row r="75" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="93" t="str">
         <f>RIGHT(D75:D225,4)</f>
         <v>6661</v>
@@ -3818,7 +3818,7 @@
       <c r="J75" s="39"/>
       <c r="K75" s="82"/>
     </row>
-    <row r="76" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="93" t="str">
         <f>RIGHT(D76:D226,4)</f>
         <v>6713</v>
@@ -3843,7 +3843,7 @@
       <c r="J76" s="39"/>
       <c r="K76" s="82"/>
     </row>
-    <row r="77" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="93" t="str">
         <f>RIGHT(D77:D222,4)</f>
         <v/>
@@ -3860,7 +3860,7 @@
       <c r="I77" s="74"/>
       <c r="J77" s="75"/>
     </row>
-    <row r="78" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A78" s="93" t="str">
         <f>RIGHT(D78:D223,4)</f>
         <v>5698</v>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="J78" s="39"/>
     </row>
-    <row r="79" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="93" t="str">
         <f>RIGHT(D79:D226,4)</f>
         <v>6528</v>
@@ -3940,7 +3940,7 @@
       <c r="I80" s="14"/>
       <c r="J80" s="39"/>
     </row>
-    <row r="81" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="93" t="str">
         <f>RIGHT(D81:D227,4)</f>
         <v>6609</v>
@@ -3992,7 +3992,7 @@
       <c r="I82" s="14"/>
       <c r="J82" s="39"/>
     </row>
-    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="93" t="str">
         <f>RIGHT(D83:D228,4)</f>
         <v>6527</v>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="J83" s="39"/>
     </row>
-    <row r="84" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="93" t="str">
         <f>RIGHT(D84:D229,4)</f>
         <v/>
@@ -4039,7 +4039,7 @@
       <c r="I84" s="74"/>
       <c r="J84" s="75"/>
     </row>
-    <row r="85" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A85" s="93" t="str">
         <f>RIGHT(D85:D230,4)</f>
         <v>7232</v>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="J85" s="39"/>
     </row>
-    <row r="86" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="93" t="str">
         <f>RIGHT(D86:D231,4)</f>
         <v>6785</v>
@@ -4091,7 +4091,7 @@
       <c r="I86" s="14"/>
       <c r="J86" s="39"/>
     </row>
-    <row r="87" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="93" t="str">
         <f>RIGHT(D87:D232,4)</f>
         <v>7149</v>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="J87" s="39"/>
     </row>
-    <row r="88" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="93" t="str">
         <f>RIGHT(D88:D232,4)</f>
         <v>6786</v>
@@ -4143,7 +4143,7 @@
       <c r="I88" s="14"/>
       <c r="J88" s="39"/>
     </row>
-    <row r="89" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="93" t="str">
         <f>RIGHT(D89:D233,4)</f>
         <v>4903</v>
@@ -4167,7 +4167,7 @@
       <c r="I89" s="14"/>
       <c r="J89" s="39"/>
     </row>
-    <row r="90" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="93" t="str">
         <f>RIGHT(D90:D233,4)</f>
         <v>7131</v>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="J90" s="39"/>
     </row>
-    <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="93" t="str">
         <f>RIGHT(D91:D231,4)</f>
         <v>7241</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="J91" s="39"/>
     </row>
-    <row r="92" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="93" t="str">
         <f>RIGHT(D92:D234,4)</f>
         <v/>
@@ -4240,7 +4240,7 @@
       <c r="I92" s="74"/>
       <c r="J92" s="75"/>
     </row>
-    <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A93" s="93" t="str">
         <f>RIGHT(D93:D235,4)</f>
         <v>7154</v>
@@ -4292,7 +4292,7 @@
       <c r="I94" s="14"/>
       <c r="J94" s="39"/>
     </row>
-    <row r="95" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="93" t="str">
         <f>RIGHT(D95:D238,4)</f>
         <v>6795</v>
@@ -4316,7 +4316,7 @@
       <c r="I95" s="14"/>
       <c r="J95" s="39"/>
     </row>
-    <row r="96" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="93" t="str">
         <f>RIGHT(D96:D238,4)</f>
         <v>6807</v>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="J97" s="39"/>
     </row>
-    <row r="98" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="93" t="str">
         <f>RIGHT(D98:D240,4)</f>
         <v>6787</v>
@@ -4394,7 +4394,7 @@
       <c r="I98" s="14"/>
       <c r="J98" s="39"/>
     </row>
-    <row r="99" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="93" t="str">
         <f>RIGHT(D99:D241,4)</f>
         <v>6788</v>
@@ -4418,7 +4418,7 @@
       <c r="I99" s="14"/>
       <c r="J99" s="39"/>
     </row>
-    <row r="100" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="93" t="str">
         <f>RIGHT(D100:D242,4)</f>
         <v>6790</v>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="J101" s="39"/>
     </row>
-    <row r="102" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="93" t="str">
         <f>RIGHT(D102:D242,4)</f>
         <v>6791</v>
@@ -4594,7 +4594,7 @@
       <c r="I106" s="14"/>
       <c r="J106" s="39"/>
     </row>
-    <row r="107" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="93" t="str">
         <f>RIGHT(D107:D244,4)</f>
         <v>7087</v>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="J109" s="39"/>
     </row>
-    <row r="110" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4697,7 +4697,7 @@
       <c r="I110" s="74"/>
       <c r="J110" s="75"/>
     </row>
-    <row r="111" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A111" s="93" t="str">
         <f t="shared" si="3"/>
         <v>5706</v>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="J111" s="39"/>
     </row>
-    <row r="112" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="str">
         <f t="shared" si="3"/>
         <v>6454</v>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="J112" s="39"/>
     </row>
-    <row r="113" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="93" t="str">
         <f t="shared" si="3"/>
         <v>6222</v>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="J114" s="39"/>
     </row>
-    <row r="115" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="93" t="str">
         <f>RIGHT(D115:D252,4)</f>
         <v>5708</v>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="J115" s="39"/>
     </row>
-    <row r="116" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="93" t="str">
         <f>RIGHT(D116:D253,4)</f>
         <v>1146</v>
@@ -4865,7 +4865,7 @@
       <c r="I116" s="14"/>
       <c r="J116" s="39"/>
     </row>
-    <row r="117" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="93" t="str">
         <f>RIGHT(D117:D254,4)</f>
         <v>7150</v>
@@ -4889,7 +4889,7 @@
       <c r="I117" s="14"/>
       <c r="J117" s="39"/>
     </row>
-    <row r="118" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="93" t="str">
         <f>RIGHT(D118:D253,4)</f>
         <v>6834</v>
@@ -4913,7 +4913,7 @@
       <c r="I118" s="14"/>
       <c r="J118" s="39"/>
     </row>
-    <row r="119" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="93" t="str">
         <f>RIGHT(D119:D254,4)</f>
         <v>6448</v>
@@ -4991,7 +4991,7 @@
       <c r="I121" s="14"/>
       <c r="J121" s="39"/>
     </row>
-    <row r="122" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="93" t="str">
         <f t="shared" ref="A122:A127" si="4">RIGHT(D122:D257,4)</f>
         <v>4993</v>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="J122" s="39"/>
     </row>
-    <row r="123" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="93" t="str">
         <f t="shared" si="4"/>
         <v>7105</v>
@@ -5047,7 +5047,7 @@
       <c r="I123" s="14"/>
       <c r="J123" s="39"/>
     </row>
-    <row r="124" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="93" t="str">
         <f t="shared" si="4"/>
         <v>7106</v>
@@ -5073,7 +5073,7 @@
       <c r="I124" s="14"/>
       <c r="J124" s="39"/>
     </row>
-    <row r="125" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="93" t="str">
         <f t="shared" si="4"/>
         <v>7107</v>
@@ -5099,7 +5099,7 @@
       <c r="I125" s="14"/>
       <c r="J125" s="39"/>
     </row>
-    <row r="126" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="93" t="str">
         <f t="shared" si="4"/>
         <v>7147</v>
@@ -5125,7 +5125,7 @@
       <c r="I126" s="14"/>
       <c r="J126" s="39"/>
     </row>
-    <row r="127" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="93" t="str">
         <f t="shared" si="4"/>
         <v>7229</v>
@@ -5151,7 +5151,7 @@
       <c r="I127" s="14"/>
       <c r="J127" s="39"/>
     </row>
-    <row r="128" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="93" t="str">
         <f>RIGHT(D128:D262,4)</f>
         <v>7225</v>
@@ -5177,7 +5177,7 @@
       <c r="I128" s="14"/>
       <c r="J128" s="39"/>
     </row>
-    <row r="129" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="93" t="str">
         <f>RIGHT(D129:D263,4)</f>
         <v>7227</v>
@@ -5203,7 +5203,7 @@
       <c r="I129" s="14"/>
       <c r="J129" s="39"/>
     </row>
-    <row r="130" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="93" t="str">
         <f>RIGHT(D130:D264,4)</f>
         <v>7226</v>
@@ -5229,7 +5229,7 @@
       <c r="I130" s="14"/>
       <c r="J130" s="39"/>
     </row>
-    <row r="131" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="93" t="str">
         <f>RIGHT(D131:D258,4)</f>
         <v>3684</v>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="J132" s="39"/>
     </row>
-    <row r="133" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="93" t="str">
         <f>RIGHT(D133:D261,4)</f>
         <v>4117</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="J133" s="39"/>
     </row>
-    <row r="134" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="93" t="str">
         <f>RIGHT(D134:D262,4)</f>
         <v>3680</v>
@@ -5339,7 +5339,7 @@
       <c r="I134" s="14"/>
       <c r="J134" s="39"/>
     </row>
-    <row r="135" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="93" t="str">
         <f>RIGHT(D135:D262,4)</f>
         <v>5483</v>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="J135" s="39"/>
     </row>
-    <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="93" t="str">
         <f>RIGHT(D136:D263,4)</f>
         <v>6453</v>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="J136" s="39"/>
     </row>
-    <row r="137" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="93" t="str">
         <f>RIGHT(D137:D264,4)</f>
         <v/>
@@ -5416,7 +5416,7 @@
       <c r="I137" s="74"/>
       <c r="J137" s="75"/>
     </row>
-    <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A138" s="93" t="str">
         <f>RIGHT(D138:D268,4)</f>
         <v>6470</v>
@@ -5466,7 +5466,7 @@
       <c r="I139" s="14"/>
       <c r="J139" s="39"/>
     </row>
-    <row r="140" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="93" t="str">
         <f>RIGHT(D140:D270,4)</f>
         <v>7235</v>
@@ -5492,7 +5492,7 @@
       <c r="I140" s="14"/>
       <c r="J140" s="39"/>
     </row>
-    <row r="141" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="93" t="str">
         <f>RIGHT(D141:D271,4)</f>
         <v>6411</v>
@@ -5518,7 +5518,7 @@
       <c r="I141" s="14"/>
       <c r="J141" s="39"/>
     </row>
-    <row r="142" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="93" t="str">
         <f>RIGHT(D142:D269,4)</f>
         <v>6866</v>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="J143" s="39"/>
     </row>
-    <row r="144" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="93" t="str">
         <f>RIGHT(D144:D267,4)</f>
         <v>7245</v>
@@ -5598,7 +5598,7 @@
       <c r="I144" s="14"/>
       <c r="J144" s="39"/>
     </row>
-    <row r="145" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="93" t="str">
         <f>RIGHT(D145:D269,4)</f>
         <v/>
@@ -5615,7 +5615,7 @@
       <c r="I145" s="74"/>
       <c r="J145" s="75"/>
     </row>
-    <row r="146" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="93" t="str">
         <f>RIGHT(D146:D272,4)</f>
         <v>7090</v>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="J146" s="39"/>
     </row>
-    <row r="147" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="93" t="str">
         <f>RIGHT(D147:D273,4)</f>
         <v>4691</v>
@@ -5695,7 +5695,7 @@
       <c r="I148" s="14"/>
       <c r="J148" s="92"/>
     </row>
-    <row r="149" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="93" t="str">
         <f>RIGHT(D149:D275,4)</f>
         <v>6201</v>
@@ -5721,7 +5721,7 @@
       <c r="I149" s="14"/>
       <c r="J149" s="92"/>
     </row>
-    <row r="150" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="93" t="str">
         <f>RIGHT(D150:D275,4)</f>
         <v>6842</v>
@@ -5747,7 +5747,7 @@
       <c r="I150" s="14"/>
       <c r="J150" s="92"/>
     </row>
-    <row r="151" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="93" t="str">
         <f>RIGHT(D151:D275,4)</f>
         <v>6492</v>
@@ -5773,7 +5773,7 @@
       <c r="I151" s="14"/>
       <c r="J151" s="92"/>
     </row>
-    <row r="152" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="93" t="str">
         <f>RIGHT(D152:D273,4)</f>
         <v>6279</v>
@@ -5799,7 +5799,7 @@
       <c r="I152" s="14"/>
       <c r="J152" s="92"/>
     </row>
-    <row r="153" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="93" t="str">
         <f>RIGHT(D153:D274,4)</f>
         <v>4786</v>
@@ -5825,7 +5825,7 @@
       <c r="I153" s="14"/>
       <c r="J153" s="92"/>
     </row>
-    <row r="154" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="93" t="str">
         <f>RIGHT(D154:D275,4)</f>
         <v>7052</v>
@@ -5851,7 +5851,7 @@
       <c r="I154" s="14"/>
       <c r="J154" s="92"/>
     </row>
-    <row r="155" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="93" t="str">
         <f>RIGHT(D155:D275,4)</f>
         <v>7053</v>
@@ -5877,7 +5877,7 @@
       <c r="I155" s="14"/>
       <c r="J155" s="92"/>
     </row>
-    <row r="156" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="93" t="str">
         <f>RIGHT(D156:D275,4)</f>
         <v>7092</v>
@@ -5903,7 +5903,7 @@
       <c r="I156" s="14"/>
       <c r="J156" s="39"/>
     </row>
-    <row r="157" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="93" t="str">
         <f>RIGHT(D157:D276,4)</f>
         <v>7103</v>
@@ -5929,7 +5929,7 @@
       <c r="I157" s="14"/>
       <c r="J157" s="92"/>
     </row>
-    <row r="158" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="93" t="str">
         <f>RIGHT(D158:D273,4)</f>
         <v>6919</v>
@@ -5953,7 +5953,7 @@
       <c r="I158" s="14"/>
       <c r="J158" s="92"/>
     </row>
-    <row r="159" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="93" t="str">
         <f>RIGHT(D159:D274,4)</f>
         <v/>
@@ -5970,7 +5970,7 @@
       <c r="I159" s="74"/>
       <c r="J159" s="75"/>
     </row>
-    <row r="160" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="93" t="str">
         <f>RIGHT(D160:D277,4)</f>
         <v/>
@@ -5987,7 +5987,7 @@
       <c r="I160" s="74"/>
       <c r="J160" s="75"/>
     </row>
-    <row r="161" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A161" s="93" t="str">
         <f>RIGHT(D161:D278,4)</f>
         <v>6314</v>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="J161" s="39"/>
     </row>
-    <row r="162" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="93" t="str">
         <f>RIGHT(D162:D279,4)</f>
         <v>6155</v>
@@ -6041,7 +6041,7 @@
       <c r="I162" s="72"/>
       <c r="J162" s="39"/>
     </row>
-    <row r="163" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="93" t="str">
         <f>RIGHT(D163:D280,4)</f>
         <v>6157</v>
@@ -6065,7 +6065,7 @@
       <c r="I163" s="72"/>
       <c r="J163" s="39"/>
     </row>
-    <row r="164" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="93" t="str">
         <f t="shared" ref="A164:A175" si="7">RIGHT(D164:D279,4)</f>
         <v>6313</v>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="J164" s="39"/>
     </row>
-    <row r="165" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6112,7 +6112,7 @@
       <c r="I165" s="74"/>
       <c r="J165" s="75"/>
     </row>
-    <row r="166" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="93" t="str">
         <f t="shared" si="7"/>
         <v>4945</v>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="J166" s="39"/>
     </row>
-    <row r="167" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6159,7 +6159,7 @@
       <c r="I167" s="74"/>
       <c r="J167" s="75"/>
     </row>
-    <row r="168" spans="1:11" s="88" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="93" t="str">
         <f t="shared" si="7"/>
         <v>4956</v>
@@ -6190,7 +6190,7 @@
       <c r="J168" s="86"/>
       <c r="K168" s="87"/>
     </row>
-    <row r="169" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A169" s="93" t="str">
         <f t="shared" si="7"/>
         <v>1762</v>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="J169" s="39"/>
     </row>
-    <row r="170" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="93" t="str">
         <f t="shared" si="7"/>
         <v>1764</v>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="J170" s="39"/>
     </row>
-    <row r="171" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6267,7 +6267,7 @@
       <c r="I171" s="74"/>
       <c r="J171" s="75"/>
     </row>
-    <row r="172" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6284,7 +6284,7 @@
       <c r="I172" s="74"/>
       <c r="J172" s="75"/>
     </row>
-    <row r="173" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="93" t="str">
         <f t="shared" si="7"/>
         <v>6004</v>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="J173" s="39"/>
     </row>
-    <row r="174" spans="1:11" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A174" s="93" t="str">
         <f t="shared" si="7"/>
         <v>5417</v>
@@ -6344,7 +6344,7 @@
       </c>
       <c r="J174" s="39"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="93" t="str">
         <f t="shared" si="7"/>
         <v>6019</v>
@@ -21641,13 +21641,7 @@
       <c r="J1700" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:J176" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:J176" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 07,07,25ц-выезд 09,07.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 07,07,25ц-выезд 09,07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D84D89-20FA-4E93-A369-33DA5EEBA0D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B535951-92AA-4F81-AA7D-C82E3C688C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$177</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="254">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -791,6 +791,9 @@
   </si>
   <si>
     <t xml:space="preserve"> АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ С ГОВЯДИНОЙ ПМ сос п/о мгс 1.5*4</t>
   </si>
 </sst>
 </file>
@@ -1976,11 +1979,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1700"/>
+  <dimension ref="A1:L1701"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I188" sqref="I188"/>
+      <pane ySplit="9" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J184" sqref="J184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,7 +2128,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="str">
-        <f>RIGHT(D11:D175,4)</f>
+        <f>RIGHT(D11:D176,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2156,7 +2159,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="str">
-        <f>RIGHT(D12:D176,4)</f>
+        <f>RIGHT(D12:D177,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2181,7 +2184,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="str">
-        <f>RIGHT(D13:D176,4)</f>
+        <f>RIGHT(D13:D177,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2205,7 +2208,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93" t="str">
-        <f>RIGHT(D14:D177,4)</f>
+        <f>RIGHT(D14:D178,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2229,7 +2232,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="str">
-        <f>RIGHT(D15:D178,4)</f>
+        <f>RIGHT(D15:D179,4)</f>
         <v>7126</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2255,7 +2258,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="str">
-        <f>RIGHT(D16:D178,4)</f>
+        <f>RIGHT(D16:D179,4)</f>
         <v>6247</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2279,7 +2282,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93" t="str">
-        <f t="shared" ref="A17:A24" si="0">RIGHT(D17:D178,4)</f>
+        <f>RIGHT(D17:D179,4)</f>
         <v>6325</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2309,7 +2312,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D18:D180,4)</f>
         <v>6324</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2335,7 +2338,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D19:D181,4)</f>
         <v>6839</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2361,7 +2364,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D20:D182,4)</f>
         <v>7231</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2385,7 +2388,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D21:D183,4)</f>
         <v>4063</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2415,7 +2418,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D22:D184,4)</f>
         <v>6333</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2445,7 +2448,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D23:D185,4)</f>
         <v>4574</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2475,7 +2478,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D24:D186,4)</f>
         <v>6861</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2505,7 +2508,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="str">
-        <f>RIGHT(D25:D189,4)</f>
+        <f>RIGHT(D25:D190,4)</f>
         <v>6862</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2529,7 +2532,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="str">
-        <f>RIGHT(D26:D189,4)</f>
+        <f>RIGHT(D26:D190,4)</f>
         <v>6341</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2553,7 +2556,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="str">
-        <f>RIGHT(D27:D190,4)</f>
+        <f>RIGHT(D27:D191,4)</f>
         <v>5247</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2583,7 +2586,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="93" t="str">
-        <f t="shared" ref="A28:A33" si="1">RIGHT(D28:D193,4)</f>
+        <f>RIGHT(D28:D194,4)</f>
         <v>4813</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2613,7 +2616,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D29:D195,4)</f>
         <v>6392</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D30:D196,4)</f>
         <v>6801</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2669,7 +2672,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D31:D197,4)</f>
         <v>6802</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2693,7 +2696,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D32:D198,4)</f>
         <v>6877</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2717,7 +2720,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D33:D199,4)</f>
         <v>6888</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2743,7 +2746,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="str">
-        <f>RIGHT(D34:D196,4)</f>
+        <f>RIGHT(D34:D197,4)</f>
         <v>5851</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2773,7 +2776,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="str">
-        <f>RIGHT(D35:D197,4)</f>
+        <f>RIGHT(D35:D198,4)</f>
         <v>6159</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2797,7 +2800,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="str">
-        <f>RIGHT(D36:D197,4)</f>
+        <f>RIGHT(D36:D198,4)</f>
         <v>6158</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2825,7 +2828,7 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="str">
-        <f>RIGHT(D37:D199,4)</f>
+        <f>RIGHT(D37:D200,4)</f>
         <v>6340</v>
       </c>
       <c r="B37" s="95" t="s">
@@ -2853,7 +2856,7 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="93" t="str">
-        <f>RIGHT(D38:D197,4)</f>
+        <f>RIGHT(D38:D198,4)</f>
         <v>6353</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2883,7 +2886,7 @@
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="93" t="str">
-        <f>RIGHT(D39:D198,4)</f>
+        <f>RIGHT(D39:D199,4)</f>
         <v/>
       </c>
       <c r="B39" s="74" t="s">
@@ -2900,7 +2903,7 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="93" t="str">
-        <f>RIGHT(D40:D201,4)</f>
+        <f>RIGHT(D40:D202,4)</f>
         <v>6870</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -2925,7 +2928,7 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="93" t="str">
-        <f>RIGHT(D41:D203,4)</f>
+        <f>RIGHT(D41:D204,4)</f>
         <v>7038</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -2950,7 +2953,7 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="str">
-        <f>RIGHT(D42:D204,4)</f>
+        <f>RIGHT(D42:D205,4)</f>
         <v>7040</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -2977,7 +2980,7 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="93" t="str">
-        <f>RIGHT(D43:D203,4)</f>
+        <f>RIGHT(D43:D204,4)</f>
         <v>7075</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -3002,7 +3005,7 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93" t="str">
-        <f>RIGHT(D44:D204,4)</f>
+        <f>RIGHT(D44:D205,4)</f>
         <v>7070</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -3027,7 +3030,7 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="93" t="str">
-        <f>RIGHT(D45:D202,4)</f>
+        <f>RIGHT(D45:D203,4)</f>
         <v>6253</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -3052,7 +3055,7 @@
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="93" t="str">
-        <f>RIGHT(D46:D201,4)</f>
+        <f>RIGHT(D46:D202,4)</f>
         <v>6602</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -3077,7 +3080,7 @@
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="93" t="str">
-        <f>RIGHT(D47:D204,4)</f>
+        <f>RIGHT(D47:D205,4)</f>
         <v>6768</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -3102,7 +3105,7 @@
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93" t="str">
-        <f>RIGHT(D48:D205,4)</f>
+        <f>RIGHT(D48:D206,4)</f>
         <v>6770</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -3127,7 +3130,7 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="93" t="str">
-        <f>RIGHT(D49:D208,4)</f>
+        <f>RIGHT(D49:D209,4)</f>
         <v>6829</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -3151,7 +3154,7 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="93" t="str">
-        <f t="shared" ref="A50:A55" si="2">RIGHT(D50:D213,4)</f>
+        <f>RIGHT(D50:D214,4)</f>
         <v>7074</v>
       </c>
       <c r="B50" s="27" t="s">
@@ -3175,7 +3178,7 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D51:D215,4)</f>
         <v>7073</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -3199,7 +3202,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D52:D216,4)</f>
         <v>6759</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -3223,7 +3226,7 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D53:D217,4)</f>
         <v>6724</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -3249,7 +3252,7 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D54:D218,4)</f>
         <v>6616</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -3275,7 +3278,7 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D55:D219,4)</f>
         <v>7276</v>
       </c>
       <c r="B55" s="27" t="s">
@@ -3301,7 +3304,7 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="str">
-        <f>RIGHT(D56:D216,4)</f>
+        <f>RIGHT(D56:D217,4)</f>
         <v>6901</v>
       </c>
       <c r="B56" s="27" t="s">
@@ -3327,7 +3330,7 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="93" t="str">
-        <f>RIGHT(D57:D217,4)</f>
+        <f>RIGHT(D57:D218,4)</f>
         <v>6962</v>
       </c>
       <c r="B57" s="27" t="s">
@@ -3353,7 +3356,7 @@
     </row>
     <row r="58" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="str">
-        <f>RIGHT(D58:D215,4)</f>
+        <f>RIGHT(D58:D216,4)</f>
         <v>6303</v>
       </c>
       <c r="B58" s="70" t="s">
@@ -3384,7 +3387,7 @@
     </row>
     <row r="59" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="93" t="str">
-        <f>RIGHT(D59:D216,4)</f>
+        <f>RIGHT(D59:D217,4)</f>
         <v>7077</v>
       </c>
       <c r="B59" s="70" t="s">
@@ -3409,7 +3412,7 @@
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="93" t="str">
-        <f>RIGHT(D60:D216,4)</f>
+        <f>RIGHT(D60:D217,4)</f>
         <v>7080</v>
       </c>
       <c r="B60" s="45" t="s">
@@ -3439,7 +3442,7 @@
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="93" t="str">
-        <f>RIGHT(D61:D217,4)</f>
+        <f>RIGHT(D61:D218,4)</f>
         <v>6762</v>
       </c>
       <c r="B61" s="45" t="s">
@@ -3465,7 +3468,7 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="93" t="str">
-        <f>RIGHT(D62:D217,4)</f>
+        <f>RIGHT(D62:D218,4)</f>
         <v>5820</v>
       </c>
       <c r="B62" s="45" t="s">
@@ -3491,7 +3494,7 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="93" t="str">
-        <f>RIGHT(D63:D218,4)</f>
+        <f>RIGHT(D63:D219,4)</f>
         <v>7082</v>
       </c>
       <c r="B63" s="45" t="s">
@@ -3515,7 +3518,7 @@
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93" t="str">
-        <f>RIGHT(D64:D219,4)</f>
+        <f>RIGHT(D64:D220,4)</f>
         <v>6764</v>
       </c>
       <c r="B64" s="45" t="s">
@@ -3539,7 +3542,7 @@
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="str">
-        <f>RIGHT(D65:D221,4)</f>
+        <f>RIGHT(D65:D222,4)</f>
         <v>6761</v>
       </c>
       <c r="B65" s="45" t="s">
@@ -3563,7 +3566,7 @@
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="93" t="str">
-        <f>RIGHT(D66:D222,4)</f>
+        <f>RIGHT(D66:D223,4)</f>
         <v>6767</v>
       </c>
       <c r="B66" s="45" t="s">
@@ -3587,7 +3590,7 @@
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="93" t="str">
-        <f>RIGHT(D67:D222,4)</f>
+        <f>RIGHT(D67:D223,4)</f>
         <v>6765</v>
       </c>
       <c r="B67" s="45" t="s">
@@ -3611,7 +3614,7 @@
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="93" t="str">
-        <f>RIGHT(D68:D223,4)</f>
+        <f>RIGHT(D68:D224,4)</f>
         <v>6909</v>
       </c>
       <c r="B68" s="45" t="s">
@@ -3637,7 +3640,7 @@
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="93" t="str">
-        <f>RIGHT(D69:D224,4)</f>
+        <f>RIGHT(D69:D225,4)</f>
         <v>7284</v>
       </c>
       <c r="B69" s="45" t="s">
@@ -3663,7 +3666,7 @@
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93" t="str">
-        <f>RIGHT(D70:D224,4)</f>
+        <f>RIGHT(D70:D225,4)</f>
         <v>7250</v>
       </c>
       <c r="B70" s="45" t="s">
@@ -3689,7 +3692,7 @@
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93" t="str">
-        <f>RIGHT(D71:D224,4)</f>
+        <f>RIGHT(D71:D225,4)</f>
         <v>6987</v>
       </c>
       <c r="B71" s="45" t="s">
@@ -3715,7 +3718,7 @@
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="93" t="str">
-        <f>RIGHT(D72:D222,4)</f>
+        <f>RIGHT(D72:D223,4)</f>
         <v>7066</v>
       </c>
       <c r="B72" s="45" t="s">
@@ -3745,7 +3748,7 @@
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="93" t="str">
-        <f>RIGHT(D73:D223,4)</f>
+        <f>RIGHT(D73:D224,4)</f>
         <v>6837</v>
       </c>
       <c r="B73" s="45" t="s">
@@ -3771,17 +3774,17 @@
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="93" t="str">
-        <f>RIGHT(D74:D224,4)</f>
-        <v>7244</v>
+        <f>RIGHT(D74:D225,4)</f>
+        <v>7271</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>87</v>
+        <v>253</v>
       </c>
       <c r="C74" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D74" s="28">
-        <v>1001022557244</v>
+        <v>1001025507271</v>
       </c>
       <c r="E74" s="24"/>
       <c r="F74" s="23"/>
@@ -3793,49 +3796,48 @@
       <c r="I74" s="14"/>
       <c r="J74" s="39"/>
     </row>
-    <row r="75" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="93" t="str">
         <f>RIGHT(D75:D225,4)</f>
-        <v>6661</v>
-      </c>
-      <c r="B75" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C75" s="30" t="s">
+        <v>7244</v>
+      </c>
+      <c r="B75" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="28">
-        <v>1001022246661</v>
+        <v>1001022557244</v>
       </c>
       <c r="E75" s="24"/>
       <c r="F75" s="23"/>
       <c r="G75" s="23">
-        <f>E75*1</f>
+        <f>E75</f>
         <v>0</v>
       </c>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="39"/>
-      <c r="K75" s="82"/>
-    </row>
-    <row r="76" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="93" t="str">
         <f>RIGHT(D76:D226,4)</f>
-        <v>6713</v>
+        <v>6661</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>26</v>
+        <v>88</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D76" s="28">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="23"/>
       <c r="G76" s="23">
-        <f>E76*0.41</f>
+        <f>E76*1</f>
         <v>0</v>
       </c>
       <c r="H76" s="14"/>
@@ -3843,97 +3845,96 @@
       <c r="J76" s="39"/>
       <c r="K76" s="82"/>
     </row>
-    <row r="77" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="93" t="str">
-        <f>RIGHT(D77:D222,4)</f>
-        <v/>
-      </c>
-      <c r="B77" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="74"/>
-      <c r="H77" s="74"/>
-      <c r="I77" s="74"/>
-      <c r="J77" s="75"/>
-    </row>
-    <row r="78" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D77:D227,4)</f>
+        <v>6713</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="28">
+        <v>1001022246713</v>
+      </c>
+      <c r="E77" s="24"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23">
+        <f>E77*0.41</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="82"/>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="93" t="str">
         <f>RIGHT(D78:D223,4)</f>
+        <v/>
+      </c>
+      <c r="B78" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="74"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="74"/>
+      <c r="H78" s="74"/>
+      <c r="I78" s="74"/>
+      <c r="J78" s="75"/>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="93" t="str">
+        <f>RIGHT(D79:D224,4)</f>
         <v>5698</v>
       </c>
-      <c r="B78" s="46" t="s">
+      <c r="B79" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="C79" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D78" s="28">
+      <c r="D79" s="28">
         <v>1001034065698</v>
       </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="23">
+      <c r="E79" s="24"/>
+      <c r="F79" s="23">
         <v>1.013333333333333</v>
       </c>
-      <c r="G78" s="23">
-        <f>E78*1</f>
+      <c r="G79" s="23">
+        <f>E79*1</f>
         <v>0</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H79" s="14">
         <v>3.04</v>
       </c>
-      <c r="I78" s="14">
+      <c r="I79" s="14">
         <v>30</v>
       </c>
-      <c r="J78" s="39"/>
-    </row>
-    <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="93" t="str">
-        <f>RIGHT(D79:D226,4)</f>
-        <v>6528</v>
-      </c>
-      <c r="B79" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="28">
-        <v>1001031076528</v>
-      </c>
-      <c r="E79" s="24"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23">
-        <f>E79*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
       <c r="J79" s="39"/>
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="93" t="str">
         <f>RIGHT(D80:D227,4)</f>
-        <v>7059</v>
+        <v>6528</v>
       </c>
       <c r="B80" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D80" s="28">
-        <v>1001035277059</v>
+        <v>1001031076528</v>
       </c>
       <c r="E80" s="24"/>
-      <c r="F80" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F80" s="23"/>
       <c r="G80" s="23">
-        <f>F80*E80</f>
+        <f>E80*0.4</f>
         <v>0</v>
       </c>
       <c r="H80" s="14"/>
@@ -3942,21 +3943,21 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="93" t="str">
-        <f>RIGHT(D81:D227,4)</f>
-        <v>6609</v>
+        <f>RIGHT(D81:D228,4)</f>
+        <v>7059</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D81" s="28">
-        <v>1001033856609</v>
+        <v>1001035277059</v>
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G81" s="23">
         <f>F81*E81</f>
@@ -3969,193 +3970,195 @@
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="93" t="str">
         <f>RIGHT(D82:D228,4)</f>
-        <v>7001</v>
+        <v>6609</v>
       </c>
       <c r="B82" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D82" s="28">
-        <v>1001035937001</v>
+        <v>1001033856609</v>
       </c>
       <c r="E82" s="24"/>
       <c r="F82" s="23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G82" s="23">
-        <f>E82</f>
+        <f>F82*E82</f>
         <v>0</v>
       </c>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="39"/>
     </row>
-    <row r="83" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="93" t="str">
-        <f>RIGHT(D83:D228,4)</f>
-        <v>6527</v>
+        <f>RIGHT(D83:D229,4)</f>
+        <v>7001</v>
       </c>
       <c r="B83" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C83" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="28">
-        <v>1001031076527</v>
+        <v>1001035937001</v>
       </c>
       <c r="E83" s="24"/>
       <c r="F83" s="23">
-        <v>1.0166666666666671</v>
+        <v>1</v>
       </c>
       <c r="G83" s="23">
-        <f>E83*1</f>
+        <f>E83</f>
         <v>0</v>
       </c>
-      <c r="H83" s="14">
-        <v>3.05</v>
-      </c>
-      <c r="I83" s="14">
-        <v>30</v>
-      </c>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
       <c r="J83" s="39"/>
     </row>
-    <row r="84" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="93" t="str">
         <f>RIGHT(D84:D229,4)</f>
-        <v/>
-      </c>
-      <c r="B84" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="C84" s="74"/>
-      <c r="D84" s="74"/>
-      <c r="E84" s="74"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="74"/>
-      <c r="H84" s="74"/>
-      <c r="I84" s="74"/>
-      <c r="J84" s="75"/>
-    </row>
-    <row r="85" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>6527</v>
+      </c>
+      <c r="B84" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="28">
+        <v>1001031076527</v>
+      </c>
+      <c r="E84" s="24"/>
+      <c r="F84" s="23">
+        <v>1.0166666666666671</v>
+      </c>
+      <c r="G84" s="23">
+        <f>E84*1</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="14">
+        <v>3.05</v>
+      </c>
+      <c r="I84" s="14">
+        <v>30</v>
+      </c>
+      <c r="J84" s="39"/>
+    </row>
+    <row r="85" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="93" t="str">
         <f>RIGHT(D85:D230,4)</f>
-        <v>7232</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85" s="28">
-        <v>1001302277232</v>
-      </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G85" s="23">
-        <f>E85*F85</f>
-        <v>0</v>
-      </c>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14">
-        <v>50</v>
-      </c>
-      <c r="J85" s="39"/>
-    </row>
-    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B85" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" s="74"/>
+      <c r="D85" s="74"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="74"/>
+      <c r="H85" s="74"/>
+      <c r="I85" s="74"/>
+      <c r="J85" s="75"/>
+    </row>
+    <row r="86" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A86" s="93" t="str">
         <f>RIGHT(D86:D231,4)</f>
-        <v>6785</v>
+        <v>7232</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D86" s="28">
-        <v>1001300516785</v>
+        <v>1001302277232</v>
       </c>
       <c r="E86" s="24"/>
-      <c r="F86" s="23"/>
+      <c r="F86" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G86" s="23">
-        <f>E86*0.33</f>
+        <f>E86*F86</f>
         <v>0</v>
       </c>
       <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
+      <c r="I86" s="14">
+        <v>50</v>
+      </c>
       <c r="J86" s="39"/>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="93" t="str">
         <f>RIGHT(D87:D232,4)</f>
-        <v>7149</v>
-      </c>
-      <c r="B87" s="96" t="s">
-        <v>100</v>
+        <v>6785</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D87" s="28">
-        <v>1001303637149</v>
+        <v>1001300516785</v>
       </c>
       <c r="E87" s="24"/>
-      <c r="F87" s="23">
-        <v>0.84</v>
-      </c>
+      <c r="F87" s="23"/>
       <c r="G87" s="23">
-        <f>F87*E87</f>
+        <f>E87*0.33</f>
         <v>0</v>
       </c>
       <c r="H87" s="14"/>
-      <c r="I87" s="14">
-        <v>50</v>
-      </c>
+      <c r="I87" s="14"/>
       <c r="J87" s="39"/>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="93" t="str">
-        <f>RIGHT(D88:D232,4)</f>
-        <v>6786</v>
-      </c>
-      <c r="B88" s="27" t="s">
-        <v>101</v>
+        <f>RIGHT(D88:D233,4)</f>
+        <v>7149</v>
+      </c>
+      <c r="B88" s="96" t="s">
+        <v>100</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D88" s="28">
-        <v>1001300516786</v>
+        <v>1001303637149</v>
       </c>
       <c r="E88" s="24"/>
-      <c r="F88" s="23"/>
+      <c r="F88" s="23">
+        <v>0.84</v>
+      </c>
       <c r="G88" s="23">
-        <f>E88</f>
+        <f>F88*E88</f>
         <v>0</v>
       </c>
       <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
+      <c r="I88" s="14">
+        <v>50</v>
+      </c>
       <c r="J88" s="39"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="93" t="str">
         <f>RIGHT(D89:D233,4)</f>
-        <v>4903</v>
+        <v>6786</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D89" s="28">
-        <v>1001040434903</v>
+        <v>1001300516786</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="23"/>
@@ -4169,17 +4172,17 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="93" t="str">
-        <f>RIGHT(D90:D233,4)</f>
-        <v>7131</v>
+        <f>RIGHT(D90:D234,4)</f>
+        <v>4903</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D90" s="28">
-        <v>1001303637131</v>
+        <v>1001040434903</v>
       </c>
       <c r="E90" s="24"/>
       <c r="F90" s="23"/>
@@ -4188,123 +4191,123 @@
         <v>0</v>
       </c>
       <c r="H90" s="14"/>
-      <c r="I90" s="14">
-        <v>45</v>
-      </c>
+      <c r="I90" s="14"/>
       <c r="J90" s="39"/>
     </row>
-    <row r="91" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="93" t="str">
-        <f>RIGHT(D91:D231,4)</f>
-        <v>7241</v>
+        <f>RIGHT(D91:D234,4)</f>
+        <v>7131</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D91" s="28">
-        <v>1001303107241</v>
+        <v>1001303637131</v>
       </c>
       <c r="E91" s="24"/>
-      <c r="F91" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F91" s="23"/>
       <c r="G91" s="23">
-        <f>E91*0.28</f>
+        <f>E91</f>
         <v>0</v>
       </c>
-      <c r="H91" s="14">
-        <v>2.2400000000000002</v>
-      </c>
+      <c r="H91" s="14"/>
       <c r="I91" s="14">
         <v>45</v>
       </c>
       <c r="J91" s="39"/>
     </row>
-    <row r="92" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="93" t="str">
-        <f>RIGHT(D92:D234,4)</f>
-        <v/>
-      </c>
-      <c r="B92" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="C92" s="74"/>
-      <c r="D92" s="74"/>
-      <c r="E92" s="74"/>
-      <c r="F92" s="73"/>
-      <c r="G92" s="74"/>
-      <c r="H92" s="74"/>
-      <c r="I92" s="74"/>
-      <c r="J92" s="75"/>
-    </row>
-    <row r="93" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D92:D232,4)</f>
+        <v>7241</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" s="28">
+        <v>1001303107241</v>
+      </c>
+      <c r="E92" s="24"/>
+      <c r="F92" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G92" s="23">
+        <f>E92*0.28</f>
+        <v>0</v>
+      </c>
+      <c r="H92" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I92" s="14">
+        <v>45</v>
+      </c>
+      <c r="J92" s="39"/>
+    </row>
+    <row r="93" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="93" t="str">
         <f>RIGHT(D93:D235,4)</f>
+        <v/>
+      </c>
+      <c r="B93" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="74"/>
+      <c r="D93" s="74"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="73"/>
+      <c r="G93" s="74"/>
+      <c r="H93" s="74"/>
+      <c r="I93" s="74"/>
+      <c r="J93" s="75"/>
+    </row>
+    <row r="94" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="93" t="str">
+        <f>RIGHT(D94:D236,4)</f>
         <v>7154</v>
       </c>
-      <c r="B93" s="27" t="s">
+      <c r="B94" s="27" t="s">
         <v>106</v>
-      </c>
-      <c r="C93" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" s="28">
-        <v>1001300387154</v>
-      </c>
-      <c r="E93" s="24"/>
-      <c r="F93" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="G93" s="23">
-        <f>E93*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14">
-        <v>50</v>
-      </c>
-      <c r="J93" s="39"/>
-    </row>
-    <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="93" t="str">
-        <f>RIGHT(D94:D237,4)</f>
-        <v>6793</v>
-      </c>
-      <c r="B94" s="27" t="s">
-        <v>107</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D94" s="28">
-        <v>1001303636793</v>
+        <v>1001300387154</v>
       </c>
       <c r="E94" s="24"/>
-      <c r="F94" s="23"/>
+      <c r="F94" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G94" s="23">
-        <f>E94*0.33</f>
+        <f>E94*0.35</f>
         <v>0</v>
       </c>
       <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
+      <c r="I94" s="14">
+        <v>50</v>
+      </c>
       <c r="J94" s="39"/>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="93" t="str">
         <f>RIGHT(D95:D238,4)</f>
-        <v>6795</v>
+        <v>6793</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D95" s="28">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="E95" s="24"/>
       <c r="F95" s="23"/>
@@ -4318,17 +4321,17 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="93" t="str">
-        <f>RIGHT(D96:D238,4)</f>
-        <v>6807</v>
+        <f>RIGHT(D96:D239,4)</f>
+        <v>6795</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D96" s="28">
-        <v>1001300366807</v>
+        <v>1001302596795</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="23"/>
@@ -4342,76 +4345,76 @@
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="93" t="str">
-        <f>RIGHT(D97:D238,4)</f>
-        <v>7236</v>
+        <f>RIGHT(D97:D239,4)</f>
+        <v>6807</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D97" s="28">
-        <v>1001304507236</v>
+        <v>1001300366807</v>
       </c>
       <c r="E97" s="24"/>
-      <c r="F97" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F97" s="23"/>
       <c r="G97" s="23">
-        <f>E97*0.28</f>
+        <f>E97*0.33</f>
         <v>0</v>
       </c>
-      <c r="H97" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I97" s="14">
-        <v>45</v>
-      </c>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
       <c r="J97" s="39"/>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="93" t="str">
-        <f>RIGHT(D98:D240,4)</f>
-        <v>6787</v>
+        <f>RIGHT(D98:D239,4)</f>
+        <v>7236</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D98" s="28">
-        <v>1001300456787</v>
+        <v>1001304507236</v>
       </c>
       <c r="E98" s="24"/>
-      <c r="F98" s="23"/>
+      <c r="F98" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G98" s="23">
-        <f>E98*0.33</f>
+        <f>E98*0.28</f>
         <v>0</v>
       </c>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
+      <c r="H98" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I98" s="14">
+        <v>45</v>
+      </c>
       <c r="J98" s="39"/>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="93" t="str">
         <f>RIGHT(D99:D241,4)</f>
-        <v>6788</v>
+        <v>6787</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D99" s="28">
-        <v>1001300456788</v>
+        <v>1001300456787</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="23"/>
       <c r="G99" s="23">
-        <f>E99*1</f>
+        <f>E99*0.33</f>
         <v>0</v>
       </c>
       <c r="H99" s="14"/>
@@ -4421,16 +4424,16 @@
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="93" t="str">
         <f>RIGHT(D100:D242,4)</f>
-        <v>6790</v>
+        <v>6788</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D100" s="28">
-        <v>1001300366790</v>
+        <v>1001300456788</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="23"/>
@@ -4444,126 +4447,126 @@
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="93" t="str">
-        <f>RIGHT(D101:D241,4)</f>
-        <v>7169</v>
-      </c>
-      <c r="B101" s="64" t="s">
-        <v>114</v>
+        <f>RIGHT(D101:D243,4)</f>
+        <v>6790</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>113</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D101" s="28">
-        <v>1001303987169</v>
+        <v>1001300366790</v>
       </c>
       <c r="E101" s="24"/>
-      <c r="F101" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F101" s="23"/>
       <c r="G101" s="23">
-        <f>E101*F101</f>
+        <f>E101*1</f>
         <v>0</v>
       </c>
       <c r="H101" s="14"/>
-      <c r="I101" s="14">
-        <v>50</v>
-      </c>
+      <c r="I101" s="14"/>
       <c r="J101" s="39"/>
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="93" t="str">
         <f>RIGHT(D102:D242,4)</f>
-        <v>6791</v>
+        <v>7169</v>
       </c>
       <c r="B102" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D102" s="28">
-        <v>1001304096791</v>
+        <v>1001303987169</v>
       </c>
       <c r="E102" s="24"/>
-      <c r="F102" s="23"/>
+      <c r="F102" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G102" s="23">
-        <f>E102*0.33</f>
+        <f>E102*F102</f>
         <v>0</v>
       </c>
       <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
+      <c r="I102" s="14">
+        <v>50</v>
+      </c>
       <c r="J102" s="39"/>
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="93" t="str">
         <f>RIGHT(D103:D243,4)</f>
-        <v>7166</v>
+        <v>6791</v>
       </c>
       <c r="B103" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C103" s="30" t="s">
-        <v>23</v>
+        <v>115</v>
+      </c>
+      <c r="C103" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D103" s="28">
-        <v>1001303987166</v>
+        <v>1001304096791</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="23"/>
       <c r="G103" s="23">
-        <f>E103*1</f>
+        <f>E103*0.33</f>
         <v>0</v>
       </c>
       <c r="H103" s="14"/>
-      <c r="I103" s="14">
-        <v>50</v>
-      </c>
+      <c r="I103" s="14"/>
       <c r="J103" s="39"/>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="str">
         <f>RIGHT(D104:D244,4)</f>
-        <v>6459</v>
+        <v>7166</v>
       </c>
       <c r="B104" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="C104" s="33" t="s">
-        <v>26</v>
+        <v>116</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D104" s="28">
-        <v>1001214196459</v>
+        <v>1001303987166</v>
       </c>
       <c r="E104" s="24"/>
-      <c r="F104" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F104" s="23"/>
       <c r="G104" s="23">
-        <f>E104*F104</f>
+        <f>E104*1</f>
         <v>0</v>
       </c>
       <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
+      <c r="I104" s="14">
+        <v>50</v>
+      </c>
       <c r="J104" s="39"/>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="93" t="str">
         <f>RIGHT(D105:D245,4)</f>
-        <v>6586</v>
+        <v>6459</v>
       </c>
       <c r="B105" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C105" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D105" s="28">
-        <v>1001215576586</v>
+        <v>1001214196459</v>
       </c>
       <c r="E105" s="24"/>
-      <c r="F105" s="23"/>
+      <c r="F105" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G105" s="23">
-        <f>E105*0.09</f>
+        <f>E105*F105</f>
         <v>0</v>
       </c>
       <c r="H105" s="14"/>
@@ -4572,17 +4575,17 @@
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="93" t="str">
-        <f>RIGHT(D106:D243,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D106:D246,4)</f>
+        <v>6586</v>
       </c>
       <c r="B106" s="64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C106" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D106" s="28">
-        <v>1001225416228</v>
+        <v>1001215576586</v>
       </c>
       <c r="E106" s="24"/>
       <c r="F106" s="23"/>
@@ -4597,23 +4600,21 @@
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="93" t="str">
         <f>RIGHT(D107:D244,4)</f>
-        <v>7087</v>
+        <v>6228</v>
       </c>
       <c r="B107" s="64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C107" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D107" s="28">
-        <v>1001084227087</v>
+        <v>1001225416228</v>
       </c>
       <c r="E107" s="24"/>
-      <c r="F107" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F107" s="23"/>
       <c r="G107" s="23">
-        <f>F107*E107</f>
+        <f>E107*0.09</f>
         <v>0</v>
       </c>
       <c r="H107" s="14"/>
@@ -4622,219 +4623,215 @@
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="93" t="str">
-        <f>RIGHT(D108:D243,4)</f>
-        <v>5544</v>
-      </c>
-      <c r="B108" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C108" s="30" t="s">
-        <v>23</v>
+        <f>RIGHT(D108:D245,4)</f>
+        <v>7087</v>
+      </c>
+      <c r="B108" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D108" s="28">
-        <v>1001051875544</v>
+        <v>1001084227087</v>
       </c>
       <c r="E108" s="24"/>
       <c r="F108" s="23">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
       <c r="G108" s="23">
-        <f>E108*1</f>
+        <f>F108*E108</f>
         <v>0</v>
       </c>
-      <c r="H108" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I108" s="14">
-        <v>45</v>
-      </c>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
       <c r="J108" s="39"/>
     </row>
-    <row r="109" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="93" t="str">
-        <f t="shared" ref="A109:A114" si="3">RIGHT(D109:D245,4)</f>
-        <v>6697</v>
+        <f>RIGHT(D109:D244,4)</f>
+        <v>5544</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C109" s="36" t="s">
-        <v>26</v>
+        <v>121</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D109" s="28">
-        <v>1001301876697</v>
+        <v>1001051875544</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="23">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="G109" s="23">
-        <f>E109*0.35</f>
+        <f>E109*1</f>
         <v>0</v>
       </c>
       <c r="H109" s="14">
-        <v>2.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I109" s="14">
         <v>45</v>
       </c>
       <c r="J109" s="39"/>
     </row>
-    <row r="110" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A110:A115" si="0">RIGHT(D110:D246,4)</f>
+        <v>6697</v>
+      </c>
+      <c r="B110" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" s="28">
+        <v>1001301876697</v>
+      </c>
+      <c r="E110" s="24"/>
+      <c r="F110" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="G110" s="23">
+        <f>E110*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="H110" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I110" s="14">
+        <v>45</v>
+      </c>
+      <c r="J110" s="39"/>
+    </row>
+    <row r="111" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="93" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B110" s="74" t="s">
+      <c r="B111" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="C110" s="74"/>
-      <c r="D110" s="74"/>
-      <c r="E110" s="74"/>
-      <c r="F110" s="73"/>
-      <c r="G110" s="74"/>
-      <c r="H110" s="74"/>
-      <c r="I110" s="74"/>
-      <c r="J110" s="75"/>
-    </row>
-    <row r="111" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="93" t="str">
-        <f t="shared" si="3"/>
+      <c r="C111" s="74"/>
+      <c r="D111" s="74"/>
+      <c r="E111" s="74"/>
+      <c r="F111" s="73"/>
+      <c r="G111" s="74"/>
+      <c r="H111" s="74"/>
+      <c r="I111" s="74"/>
+      <c r="J111" s="75"/>
+    </row>
+    <row r="112" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="93" t="str">
+        <f t="shared" si="0"/>
         <v>5706</v>
       </c>
-      <c r="B111" s="27" t="s">
+      <c r="B112" s="27" t="s">
         <v>124</v>
-      </c>
-      <c r="C111" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D111" s="28">
-        <v>1001061975706</v>
-      </c>
-      <c r="E111" s="24"/>
-      <c r="F111" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="G111" s="23">
-        <f>E111*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="H111" s="14">
-        <v>2</v>
-      </c>
-      <c r="I111" s="14">
-        <v>120</v>
-      </c>
-      <c r="J111" s="39"/>
-    </row>
-    <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>6454</v>
-      </c>
-      <c r="B112" s="27" t="s">
-        <v>125</v>
       </c>
       <c r="C112" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D112" s="28">
-        <v>1001201976454</v>
+        <v>1001061975706</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G112" s="23">
-        <f>E112*0.1</f>
+        <f>E112*0.25</f>
         <v>0</v>
       </c>
       <c r="H112" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I112" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J112" s="39"/>
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>6222</v>
+        <f t="shared" si="0"/>
+        <v>6454</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C113" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D113" s="28">
-        <v>1001205386222</v>
+        <v>1001201976454</v>
       </c>
       <c r="E113" s="24"/>
-      <c r="F113" s="23"/>
+      <c r="F113" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G113" s="23">
-        <f>E113*0.09</f>
+        <f>E113*0.1</f>
         <v>0</v>
       </c>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
+      <c r="H113" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I113" s="14">
+        <v>60</v>
+      </c>
       <c r="J113" s="39"/>
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>5931</v>
+        <f t="shared" si="0"/>
+        <v>6222</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C114" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D114" s="28">
-        <v>1001060755931</v>
+        <v>1001205386222</v>
       </c>
       <c r="E114" s="24"/>
-      <c r="F114" s="23">
-        <v>0.22</v>
-      </c>
+      <c r="F114" s="23"/>
       <c r="G114" s="23">
-        <f>E114*0.22</f>
+        <f>E114*0.09</f>
         <v>0</v>
       </c>
-      <c r="H114" s="14">
-        <v>1.76</v>
-      </c>
-      <c r="I114" s="14">
-        <v>120</v>
-      </c>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
       <c r="J114" s="39"/>
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="93" t="str">
-        <f>RIGHT(D115:D252,4)</f>
-        <v>5708</v>
+        <f t="shared" si="0"/>
+        <v>5931</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C115" s="30" t="s">
-        <v>23</v>
+        <v>127</v>
+      </c>
+      <c r="C115" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D115" s="28">
-        <v>1001063145708</v>
+        <v>1001060755931</v>
       </c>
       <c r="E115" s="24"/>
       <c r="F115" s="23">
-        <v>0.51249999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G115" s="23">
-        <f>E115*1</f>
+        <f>E115*0.22</f>
         <v>0</v>
       </c>
       <c r="H115" s="14">
-        <v>4.0999999999999996</v>
+        <v>1.76</v>
       </c>
       <c r="I115" s="14">
         <v>120</v>
@@ -4844,40 +4841,46 @@
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="93" t="str">
         <f>RIGHT(D116:D253,4)</f>
-        <v>1146</v>
+        <v>5708</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C116" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D116" s="28">
-        <v>1001061971146</v>
+        <v>1001063145708</v>
       </c>
       <c r="E116" s="24"/>
-      <c r="F116" s="23"/>
+      <c r="F116" s="23">
+        <v>0.51249999999999996</v>
+      </c>
       <c r="G116" s="23">
-        <f>E116</f>
+        <f>E116*1</f>
         <v>0</v>
       </c>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
+      <c r="H116" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I116" s="14">
+        <v>120</v>
+      </c>
       <c r="J116" s="39"/>
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="93" t="str">
         <f>RIGHT(D117:D254,4)</f>
-        <v>7150</v>
+        <v>1146</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C117" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D117" s="28">
-        <v>1001063237150</v>
+        <v>1001061971146</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="23"/>
@@ -4891,22 +4894,22 @@
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="93" t="str">
-        <f>RIGHT(D118:D253,4)</f>
-        <v>6834</v>
+        <f>RIGHT(D118:D255,4)</f>
+        <v>7150</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C118" s="33" t="s">
-        <v>26</v>
+        <v>130</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D118" s="28">
-        <v>1001203146834</v>
+        <v>1001063237150</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="23"/>
       <c r="G118" s="23">
-        <f>E118*0.1</f>
+        <f>E118</f>
         <v>0</v>
       </c>
       <c r="H118" s="14"/>
@@ -4916,23 +4919,21 @@
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="93" t="str">
         <f>RIGHT(D119:D254,4)</f>
-        <v>6448</v>
+        <v>6834</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C119" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D119" s="28">
-        <v>1001234146448</v>
+        <v>1001203146834</v>
       </c>
       <c r="E119" s="24"/>
-      <c r="F119" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F119" s="23"/>
       <c r="G119" s="23">
-        <f>F119*E119</f>
+        <f>E119*0.1</f>
         <v>0</v>
       </c>
       <c r="H119" s="14"/>
@@ -4942,20 +4943,20 @@
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="93" t="str">
         <f>RIGHT(D120:D255,4)</f>
-        <v>6221</v>
+        <v>6448</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C120" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D120" s="28">
-        <v>1001205376221</v>
+        <v>1001234146448</v>
       </c>
       <c r="E120" s="24"/>
       <c r="F120" s="23">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G120" s="23">
         <f>F120*E120</f>
@@ -4967,21 +4968,21 @@
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="93" t="str">
-        <f>RIGHT(D121:D255,4)</f>
-        <v>5679</v>
+        <f>RIGHT(D121:D256,4)</f>
+        <v>6221</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C121" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D121" s="28">
-        <v>1001190765679</v>
+        <v>1001205376221</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="23">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="G121" s="23">
         <f>F121*E121</f>
@@ -4993,80 +4994,80 @@
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="93" t="str">
-        <f t="shared" ref="A122:A127" si="4">RIGHT(D122:D257,4)</f>
-        <v>4993</v>
+        <f>RIGHT(D122:D256,4)</f>
+        <v>5679</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C122" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D122" s="28">
-        <v>1001060764993</v>
+        <v>1001190765679</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="23">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G122" s="23">
-        <f>E122*0.25</f>
+        <f>F122*E122</f>
         <v>0</v>
       </c>
-      <c r="H122" s="14">
-        <v>2</v>
-      </c>
-      <c r="I122" s="14">
-        <v>120</v>
-      </c>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
       <c r="J122" s="39"/>
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>7105</v>
+        <f t="shared" ref="A123:A128" si="1">RIGHT(D123:D258,4)</f>
+        <v>4993</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C123" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D123" s="28">
-        <v>1001203207105</v>
+        <v>1001060764993</v>
       </c>
       <c r="E123" s="24"/>
       <c r="F123" s="23">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="G123" s="23">
-        <f t="shared" ref="G123:G131" si="5">F123*E123</f>
+        <f>E123*0.25</f>
         <v>0</v>
       </c>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
+      <c r="H123" s="14">
+        <v>2</v>
+      </c>
+      <c r="I123" s="14">
+        <v>120</v>
+      </c>
       <c r="J123" s="39"/>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>7106</v>
+        <f t="shared" si="1"/>
+        <v>7105</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C124" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D124" s="28">
-        <v>1001205447106</v>
+        <v>1001203207105</v>
       </c>
       <c r="E124" s="24"/>
       <c r="F124" s="23">
         <v>0.09</v>
       </c>
       <c r="G124" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G124:G132" si="2">F124*E124</f>
         <v>0</v>
       </c>
       <c r="H124" s="14"/>
@@ -5075,24 +5076,24 @@
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>7107</v>
+        <f t="shared" si="1"/>
+        <v>7106</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C125" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="28">
-        <v>1001205467107</v>
+        <v>1001205447106</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="23">
         <v>0.09</v>
       </c>
       <c r="G125" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H125" s="14"/>
@@ -5101,24 +5102,24 @@
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>7147</v>
+        <f t="shared" si="1"/>
+        <v>7107</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C126" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D126" s="28">
-        <v>1001063237147</v>
+        <v>1001205467107</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="23">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="G126" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H126" s="14"/>
@@ -5127,24 +5128,24 @@
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>7229</v>
+        <f t="shared" si="1"/>
+        <v>7147</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C127" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D127" s="28">
-        <v>1001063237229</v>
+        <v>1001063237147</v>
       </c>
       <c r="E127" s="24"/>
       <c r="F127" s="23">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="G127" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H127" s="14"/>
@@ -5153,24 +5154,24 @@
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="93" t="str">
-        <f>RIGHT(D128:D262,4)</f>
-        <v>7225</v>
+        <f t="shared" si="1"/>
+        <v>7229</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C128" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D128" s="28">
-        <v>1001066537225</v>
+        <v>1001063237229</v>
       </c>
       <c r="E128" s="24"/>
       <c r="F128" s="23">
         <v>0.18</v>
       </c>
       <c r="G128" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H128" s="14"/>
@@ -5180,23 +5181,23 @@
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="93" t="str">
         <f>RIGHT(D129:D263,4)</f>
-        <v>7227</v>
+        <v>7225</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C129" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D129" s="28">
-        <v>1001063097227</v>
+        <v>1001066537225</v>
       </c>
       <c r="E129" s="24"/>
       <c r="F129" s="23">
         <v>0.18</v>
       </c>
       <c r="G129" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H129" s="14"/>
@@ -5206,23 +5207,23 @@
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="93" t="str">
         <f>RIGHT(D130:D264,4)</f>
-        <v>7226</v>
+        <v>7227</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C130" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D130" s="28">
-        <v>1001066527226</v>
+        <v>1001063097227</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="23">
         <v>0.18</v>
       </c>
       <c r="G130" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H130" s="14"/>
@@ -5231,24 +5232,24 @@
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="93" t="str">
-        <f>RIGHT(D131:D258,4)</f>
-        <v>3684</v>
+        <f>RIGHT(D131:D265,4)</f>
+        <v>7226</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C131" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D131" s="28">
-        <v>1001062353684</v>
+        <v>1001066527226</v>
       </c>
       <c r="E131" s="24"/>
       <c r="F131" s="23">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G131" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H131" s="14"/>
@@ -5257,209 +5258,209 @@
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="93" t="str">
-        <f>RIGHT(D132:D258,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D132:D259,4)</f>
+        <v>3684</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C132" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D132" s="28">
-        <v>1001193115682</v>
+        <v>1001062353684</v>
       </c>
       <c r="E132" s="24"/>
       <c r="F132" s="23">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G132" s="23">
-        <f>E132*0.12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H132" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I132" s="14">
-        <v>60</v>
-      </c>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
       <c r="J132" s="39"/>
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="93" t="str">
-        <f>RIGHT(D133:D261,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D133:D259,4)</f>
+        <v>5682</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C133" s="30" t="s">
-        <v>23</v>
+        <v>145</v>
+      </c>
+      <c r="C133" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D133" s="28">
-        <v>1001062504117</v>
+        <v>1001193115682</v>
       </c>
       <c r="E133" s="24"/>
       <c r="F133" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G133" s="23">
-        <f>E133*1</f>
+        <f>E133*0.12</f>
         <v>0</v>
       </c>
       <c r="H133" s="14">
-        <v>3.9</v>
+        <v>0.96</v>
       </c>
       <c r="I133" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J133" s="39"/>
     </row>
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="93" t="str">
         <f>RIGHT(D134:D262,4)</f>
-        <v>3680</v>
+        <v>4117</v>
       </c>
       <c r="B134" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C134" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D134" s="28">
-        <v>1001062353680</v>
+        <v>1001062504117</v>
       </c>
       <c r="E134" s="24"/>
-      <c r="F134" s="23"/>
+      <c r="F134" s="23">
+        <v>0.48749999999999999</v>
+      </c>
       <c r="G134" s="23">
-        <f>E134</f>
+        <f>E134*1</f>
         <v>0</v>
       </c>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
+      <c r="H134" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="I134" s="14">
+        <v>120</v>
+      </c>
       <c r="J134" s="39"/>
     </row>
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="93" t="str">
-        <f>RIGHT(D135:D262,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D135:D263,4)</f>
+        <v>3680</v>
       </c>
       <c r="B135" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C135" s="33" t="s">
-        <v>26</v>
+        <v>147</v>
+      </c>
+      <c r="C135" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D135" s="28">
-        <v>1001062505483</v>
+        <v>1001062353680</v>
       </c>
       <c r="E135" s="24"/>
-      <c r="F135" s="23">
-        <v>0.25</v>
-      </c>
+      <c r="F135" s="23"/>
       <c r="G135" s="23">
-        <f>E135*0.25</f>
+        <f>E135</f>
         <v>0</v>
       </c>
-      <c r="H135" s="14">
-        <v>2</v>
-      </c>
-      <c r="I135" s="14">
-        <v>120</v>
-      </c>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
       <c r="J135" s="39"/>
     </row>
-    <row r="136" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="93" t="str">
         <f>RIGHT(D136:D263,4)</f>
-        <v>6453</v>
+        <v>5483</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C136" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D136" s="28">
-        <v>1001202506453</v>
+        <v>1001062505483</v>
       </c>
       <c r="E136" s="24"/>
       <c r="F136" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G136" s="23">
-        <f>E136*0.1</f>
+        <f>E136*0.25</f>
         <v>0</v>
       </c>
       <c r="H136" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I136" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J136" s="39"/>
     </row>
-    <row r="137" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="93" t="str">
         <f>RIGHT(D137:D264,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B137" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C137" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E137" s="24"/>
+      <c r="F137" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G137" s="23">
+        <f>E137*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H137" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I137" s="14">
+        <v>60</v>
+      </c>
+      <c r="J137" s="39"/>
+    </row>
+    <row r="138" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="93" t="str">
+        <f>RIGHT(D138:D265,4)</f>
         <v/>
       </c>
-      <c r="B137" s="74" t="s">
+      <c r="B138" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="C137" s="74"/>
-      <c r="D137" s="74"/>
-      <c r="E137" s="74"/>
-      <c r="F137" s="73"/>
-      <c r="G137" s="74"/>
-      <c r="H137" s="74"/>
-      <c r="I137" s="74"/>
-      <c r="J137" s="75"/>
-    </row>
-    <row r="138" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="93" t="str">
-        <f>RIGHT(D138:D268,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B138" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C138" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D138" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E138" s="24"/>
-      <c r="F138" s="23"/>
-      <c r="G138" s="23">
-        <f>E138*1</f>
-        <v>0</v>
-      </c>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
-      <c r="J138" s="39"/>
-    </row>
-    <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="74"/>
+      <c r="D138" s="74"/>
+      <c r="E138" s="74"/>
+      <c r="F138" s="73"/>
+      <c r="G138" s="74"/>
+      <c r="H138" s="74"/>
+      <c r="I138" s="74"/>
+      <c r="J138" s="75"/>
+    </row>
+    <row r="139" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="str">
         <f>RIGHT(D139:D269,4)</f>
-        <v>6495</v>
+        <v>6470</v>
       </c>
       <c r="B139" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D139" s="80">
-        <v>1001092436495</v>
+        <v>1001092436470</v>
       </c>
       <c r="E139" s="24"/>
-      <c r="F139" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F139" s="23"/>
       <c r="G139" s="23">
-        <f>F139*E139</f>
+        <f>E139*1</f>
         <v>0</v>
       </c>
       <c r="H139" s="14"/>
@@ -5469,20 +5470,20 @@
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="93" t="str">
         <f>RIGHT(D140:D270,4)</f>
-        <v>7235</v>
+        <v>6495</v>
       </c>
       <c r="B140" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C140" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D140" s="80">
-        <v>1001095227235</v>
+        <v>1001092436495</v>
       </c>
       <c r="E140" s="24"/>
       <c r="F140" s="23">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G140" s="23">
         <f>F140*E140</f>
@@ -5495,20 +5496,20 @@
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="93" t="str">
         <f>RIGHT(D141:D271,4)</f>
-        <v>6411</v>
+        <v>7235</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C141" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D141" s="80">
-        <v>1001093316411</v>
+        <v>1001095227235</v>
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="23">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G141" s="23">
         <f>F141*E141</f>
@@ -5520,22 +5521,24 @@
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="93" t="str">
-        <f>RIGHT(D142:D269,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D142:D272,4)</f>
+        <v>6411</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D142" s="80">
-        <v>1001095716866</v>
+        <v>1001093316411</v>
       </c>
       <c r="E142" s="24"/>
-      <c r="F142" s="23"/>
+      <c r="F142" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G142" s="23">
-        <f>E142*1</f>
+        <f>F142*E142</f>
         <v>0</v>
       </c>
       <c r="H142" s="14"/>
@@ -5544,47 +5547,41 @@
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="93" t="str">
-        <f>RIGHT(D143:D266,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B143" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C143" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D143" s="51">
-        <v>1001094053215</v>
+        <f>RIGHT(D143:D270,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B143" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D143" s="80">
+        <v>1001095716866</v>
       </c>
       <c r="E143" s="24"/>
-      <c r="F143" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F143" s="23"/>
       <c r="G143" s="23">
-        <f>E143*0.4</f>
+        <f>E143*1</f>
         <v>0</v>
       </c>
-      <c r="H143" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I143" s="14">
-        <v>60</v>
-      </c>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
       <c r="J143" s="39"/>
     </row>
-    <row r="144" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="93" t="str">
         <f>RIGHT(D144:D267,4)</f>
-        <v>7245</v>
+        <v>3215</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C144" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D144" s="51">
-        <v>1001092687245</v>
+        <v>1001094053215</v>
       </c>
       <c r="E144" s="24"/>
       <c r="F144" s="23">
@@ -5594,101 +5591,105 @@
         <f>E144*0.4</f>
         <v>0</v>
       </c>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
+      <c r="H144" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I144" s="14">
+        <v>60</v>
+      </c>
       <c r="J144" s="39"/>
     </row>
-    <row r="145" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="93" t="str">
-        <f>RIGHT(D145:D269,4)</f>
+        <f>RIGHT(D145:D268,4)</f>
+        <v>7245</v>
+      </c>
+      <c r="B145" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" s="51">
+        <v>1001092687245</v>
+      </c>
+      <c r="E145" s="24"/>
+      <c r="F145" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G145" s="23">
+        <f>E145*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="39"/>
+    </row>
+    <row r="146" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="93" t="str">
+        <f>RIGHT(D146:D270,4)</f>
         <v/>
       </c>
-      <c r="B145" s="74" t="s">
+      <c r="B146" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="C145" s="74"/>
-      <c r="D145" s="74"/>
-      <c r="E145" s="74"/>
-      <c r="F145" s="73"/>
-      <c r="G145" s="74"/>
-      <c r="H145" s="74"/>
-      <c r="I145" s="74"/>
-      <c r="J145" s="75"/>
-    </row>
-    <row r="146" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="93" t="str">
-        <f>RIGHT(D146:D272,4)</f>
-        <v>7090</v>
-      </c>
-      <c r="B146" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="C146" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D146" s="28">
-        <v>1001084217090</v>
-      </c>
-      <c r="E146" s="24"/>
-      <c r="F146" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G146" s="23">
-        <f>E146*F146</f>
-        <v>0</v>
-      </c>
-      <c r="H146" s="14"/>
-      <c r="I146" s="14">
-        <v>50</v>
-      </c>
-      <c r="J146" s="39"/>
-    </row>
-    <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C146" s="74"/>
+      <c r="D146" s="74"/>
+      <c r="E146" s="74"/>
+      <c r="F146" s="73"/>
+      <c r="G146" s="74"/>
+      <c r="H146" s="74"/>
+      <c r="I146" s="74"/>
+      <c r="J146" s="75"/>
+    </row>
+    <row r="147" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A147" s="93" t="str">
         <f>RIGHT(D147:D273,4)</f>
-        <v>4691</v>
+        <v>7090</v>
       </c>
       <c r="B147" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C147" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D147" s="28">
-        <v>1001083424691</v>
+        <v>1001084217090</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="23">
         <v>0.3</v>
       </c>
       <c r="G147" s="23">
-        <f t="shared" ref="G147:G153" si="6">F147*E147</f>
+        <f>E147*F147</f>
         <v>0</v>
       </c>
       <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
-      <c r="J147" s="92"/>
+      <c r="I147" s="14">
+        <v>50</v>
+      </c>
+      <c r="J147" s="39"/>
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="93" t="str">
         <f>RIGHT(D148:D274,4)</f>
-        <v>7187</v>
+        <v>4691</v>
       </c>
       <c r="B148" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C148" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D148" s="28">
-        <v>1001085637187</v>
+        <v>1001083424691</v>
       </c>
       <c r="E148" s="24"/>
       <c r="F148" s="23">
         <v>0.3</v>
       </c>
       <c r="G148" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G148:G154" si="3">F148*E148</f>
         <v>0</v>
       </c>
       <c r="H148" s="14"/>
@@ -5698,23 +5699,23 @@
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="93" t="str">
         <f>RIGHT(D149:D275,4)</f>
-        <v>6201</v>
+        <v>7187</v>
       </c>
       <c r="B149" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C149" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D149" s="28">
-        <v>1001225636201</v>
+        <v>1001085637187</v>
       </c>
       <c r="E149" s="24"/>
       <c r="F149" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G149" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H149" s="14"/>
@@ -5723,24 +5724,24 @@
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="93" t="str">
-        <f>RIGHT(D150:D275,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D150:D276,4)</f>
+        <v>6201</v>
       </c>
       <c r="B150" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C150" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D150" s="28">
-        <v>1001080216842</v>
+        <v>1001225636201</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G150" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H150" s="14"/>
@@ -5749,24 +5750,24 @@
     </row>
     <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="93" t="str">
-        <f>RIGHT(D151:D275,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D151:D276,4)</f>
+        <v>6842</v>
       </c>
       <c r="B151" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C151" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D151" s="28">
-        <v>1001084226492</v>
+        <v>1001080216842</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="23">
         <v>0.3</v>
       </c>
       <c r="G151" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H151" s="14"/>
@@ -5775,24 +5776,24 @@
     </row>
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="93" t="str">
-        <f>RIGHT(D152:D273,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D152:D276,4)</f>
+        <v>6492</v>
       </c>
       <c r="B152" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C152" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D152" s="28">
-        <v>1001220286279</v>
+        <v>1001084226492</v>
       </c>
       <c r="E152" s="24"/>
       <c r="F152" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G152" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H152" s="14"/>
@@ -5802,23 +5803,23 @@
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="93" t="str">
         <f>RIGHT(D153:D274,4)</f>
-        <v>4786</v>
+        <v>6279</v>
       </c>
       <c r="B153" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C153" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D153" s="28">
-        <v>1001053944786</v>
+        <v>1001220286279</v>
       </c>
       <c r="E153" s="24"/>
       <c r="F153" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G153" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H153" s="14"/>
@@ -5828,23 +5829,23 @@
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="93" t="str">
         <f>RIGHT(D154:D275,4)</f>
-        <v>7052</v>
+        <v>4786</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D154" s="28">
-        <v>1001204447052</v>
+        <v>1001053944786</v>
       </c>
       <c r="E154" s="24"/>
       <c r="F154" s="23">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G154" s="23">
-        <f>E154</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H154" s="14"/>
@@ -5853,17 +5854,17 @@
     </row>
     <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="93" t="str">
-        <f>RIGHT(D155:D275,4)</f>
-        <v>7053</v>
+        <f>RIGHT(D155:D276,4)</f>
+        <v>7052</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C155" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D155" s="28">
-        <v>1001223297053</v>
+        <v>1001204447052</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="23">
@@ -5879,47 +5880,47 @@
     </row>
     <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="93" t="str">
-        <f>RIGHT(D156:D275,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B156" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C156" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D156:D276,4)</f>
+        <v>7053</v>
+      </c>
+      <c r="B156" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C156" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D156" s="28">
-        <v>1001223297092</v>
+        <v>1001223297053</v>
       </c>
       <c r="E156" s="24"/>
       <c r="F156" s="23">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G156" s="23">
-        <f>F156*E156</f>
+        <f>E156</f>
         <v>0</v>
       </c>
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
-      <c r="J156" s="39"/>
+      <c r="J156" s="92"/>
     </row>
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="93" t="str">
         <f>RIGHT(D157:D276,4)</f>
-        <v>7103</v>
+        <v>7092</v>
       </c>
       <c r="B157" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C157" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D157" s="28">
-        <v>1001223297103</v>
+        <v>1001223297092</v>
       </c>
       <c r="E157" s="24"/>
       <c r="F157" s="23">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G157" s="23">
         <f>F157*E157</f>
@@ -5927,56 +5928,65 @@
       </c>
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
-      <c r="J157" s="92"/>
-    </row>
-    <row r="158" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J157" s="39"/>
+    </row>
+    <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="93" t="str">
-        <f>RIGHT(D158:D273,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B158" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="C158" s="35" t="s">
+        <f>RIGHT(D158:D277,4)</f>
+        <v>7103</v>
+      </c>
+      <c r="B158" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C158" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D158" s="28">
-        <v>1001223296919</v>
+        <v>1001223297103</v>
       </c>
       <c r="E158" s="24"/>
-      <c r="F158" s="23"/>
+      <c r="F158" s="23">
+        <v>0.18</v>
+      </c>
       <c r="G158" s="23">
-        <f>E158*0.18</f>
+        <f>F158*E158</f>
         <v>0</v>
       </c>
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
       <c r="J158" s="92"/>
     </row>
-    <row r="159" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="93" t="str">
         <f>RIGHT(D159:D274,4)</f>
-        <v/>
-      </c>
-      <c r="B159" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="C159" s="74"/>
-      <c r="D159" s="74"/>
-      <c r="E159" s="74"/>
-      <c r="F159" s="73"/>
-      <c r="G159" s="74"/>
-      <c r="H159" s="74"/>
-      <c r="I159" s="74"/>
-      <c r="J159" s="75"/>
+        <v>6919</v>
+      </c>
+      <c r="B159" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C159" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E159" s="24"/>
+      <c r="F159" s="23"/>
+      <c r="G159" s="23">
+        <f>E159*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H159" s="14"/>
+      <c r="I159" s="14"/>
+      <c r="J159" s="92"/>
     </row>
     <row r="160" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="93" t="str">
-        <f>RIGHT(D160:D277,4)</f>
+        <f>RIGHT(D160:D275,4)</f>
         <v/>
       </c>
       <c r="B160" s="74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C160" s="74"/>
       <c r="D160" s="74"/>
@@ -5987,73 +5997,66 @@
       <c r="I160" s="74"/>
       <c r="J160" s="75"/>
     </row>
-    <row r="161" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="93" t="str">
         <f>RIGHT(D161:D278,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B161" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C161" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D161" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E161" s="24"/>
-      <c r="F161" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G161" s="23">
-        <f>E161*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H161" s="14">
-        <v>8</v>
-      </c>
-      <c r="I161" s="72">
-        <v>120</v>
-      </c>
-      <c r="J161" s="39"/>
-    </row>
-    <row r="162" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B161" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="C161" s="74"/>
+      <c r="D161" s="74"/>
+      <c r="E161" s="74"/>
+      <c r="F161" s="73"/>
+      <c r="G161" s="74"/>
+      <c r="H161" s="74"/>
+      <c r="I161" s="74"/>
+      <c r="J161" s="75"/>
+    </row>
+    <row r="162" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A162" s="93" t="str">
         <f>RIGHT(D162:D279,4)</f>
-        <v>6155</v>
+        <v>6314</v>
       </c>
       <c r="B162" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C162" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D162" s="28">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E162" s="24"/>
-      <c r="F162" s="23"/>
+      <c r="F162" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G162" s="23">
-        <f>E162*0.45</f>
+        <f>E162*0.5</f>
         <v>0</v>
       </c>
-      <c r="H162" s="14"/>
-      <c r="I162" s="72"/>
+      <c r="H162" s="14">
+        <v>8</v>
+      </c>
+      <c r="I162" s="72">
+        <v>120</v>
+      </c>
       <c r="J162" s="39"/>
     </row>
     <row r="163" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="93" t="str">
         <f>RIGHT(D163:D280,4)</f>
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="B163" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C163" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D163" s="28">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="23"/>
@@ -6065,174 +6068,168 @@
       <c r="I163" s="72"/>
       <c r="J163" s="39"/>
     </row>
-    <row r="164" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="93" t="str">
-        <f t="shared" ref="A164:A175" si="7">RIGHT(D164:D279,4)</f>
+        <f>RIGHT(D164:D281,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B164" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C164" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D164" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E164" s="24"/>
+      <c r="F164" s="23"/>
+      <c r="G164" s="23">
+        <f>E164*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H164" s="14"/>
+      <c r="I164" s="72"/>
+      <c r="J164" s="39"/>
+    </row>
+    <row r="165" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="93" t="str">
+        <f t="shared" ref="A165:A176" si="4">RIGHT(D165:D280,4)</f>
         <v>6313</v>
       </c>
-      <c r="B164" s="47" t="s">
+      <c r="B165" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="C164" s="36" t="s">
+      <c r="C165" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D164" s="28">
+      <c r="D165" s="28">
         <v>1002112606313</v>
       </c>
-      <c r="E164" s="24"/>
-      <c r="F164" s="23">
+      <c r="E165" s="24"/>
+      <c r="F165" s="23">
         <v>0.9</v>
       </c>
-      <c r="G164" s="23">
-        <f>E164*0.9</f>
+      <c r="G165" s="23">
+        <f>E165*0.9</f>
         <v>0</v>
       </c>
-      <c r="H164" s="14">
+      <c r="H165" s="14">
         <v>9</v>
       </c>
-      <c r="I164" s="72">
+      <c r="I165" s="72">
         <v>120</v>
       </c>
-      <c r="J164" s="39"/>
-    </row>
-    <row r="165" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B165" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="C165" s="74"/>
-      <c r="D165" s="74"/>
-      <c r="E165" s="74"/>
-      <c r="F165" s="73"/>
-      <c r="G165" s="74"/>
-      <c r="H165" s="74"/>
-      <c r="I165" s="74"/>
-      <c r="J165" s="75"/>
+      <c r="J165" s="39"/>
     </row>
     <row r="166" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v>4945</v>
-      </c>
-      <c r="B166" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="C166" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D166" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E166" s="24"/>
-      <c r="F166" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G166" s="23">
-        <f>E166*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H166" s="14">
-        <v>8</v>
-      </c>
-      <c r="I166" s="72">
-        <v>120</v>
-      </c>
-      <c r="J166" s="39"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B166" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C166" s="74"/>
+      <c r="D166" s="74"/>
+      <c r="E166" s="74"/>
+      <c r="F166" s="73"/>
+      <c r="G166" s="74"/>
+      <c r="H166" s="74"/>
+      <c r="I166" s="74"/>
+      <c r="J166" s="75"/>
     </row>
     <row r="167" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="93" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>4945</v>
+      </c>
+      <c r="B167" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C167" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D167" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E167" s="24"/>
+      <c r="F167" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G167" s="23">
+        <f>E167*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H167" s="14">
+        <v>8</v>
+      </c>
+      <c r="I167" s="72">
+        <v>120</v>
+      </c>
+      <c r="J167" s="39"/>
+    </row>
+    <row r="168" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="93" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="B167" s="74" t="s">
+      <c r="B168" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C167" s="74"/>
-      <c r="D167" s="74"/>
-      <c r="E167" s="74"/>
-      <c r="F167" s="73"/>
-      <c r="G167" s="74"/>
-      <c r="H167" s="74"/>
-      <c r="I167" s="74"/>
-      <c r="J167" s="75"/>
-    </row>
-    <row r="168" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="93" t="str">
-        <f t="shared" si="7"/>
+      <c r="C168" s="74"/>
+      <c r="D168" s="74"/>
+      <c r="E168" s="74"/>
+      <c r="F168" s="73"/>
+      <c r="G168" s="74"/>
+      <c r="H168" s="74"/>
+      <c r="I168" s="74"/>
+      <c r="J168" s="75"/>
+    </row>
+    <row r="169" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="93" t="str">
+        <f t="shared" si="4"/>
         <v>4956</v>
       </c>
-      <c r="B168" s="89" t="s">
+      <c r="B169" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="C168" s="90" t="s">
+      <c r="C169" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D168" s="83">
+      <c r="D169" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E168" s="84"/>
-      <c r="F168" s="85">
+      <c r="E169" s="84"/>
+      <c r="F169" s="85">
         <v>0.42</v>
       </c>
-      <c r="G168" s="85">
-        <f>E168*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H168" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I168" s="91">
-        <v>120</v>
-      </c>
-      <c r="J168" s="86"/>
-      <c r="K168" s="87"/>
-    </row>
-    <row r="169" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v>1762</v>
-      </c>
-      <c r="B169" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="C169" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D169" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E169" s="24"/>
-      <c r="F169" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G169" s="23">
+      <c r="G169" s="85">
         <f>E169*0.42</f>
         <v>0</v>
       </c>
-      <c r="H169" s="14">
+      <c r="H169" s="86">
         <v>4.2</v>
       </c>
-      <c r="I169" s="72">
+      <c r="I169" s="91">
         <v>120</v>
       </c>
-      <c r="J169" s="39"/>
-    </row>
-    <row r="170" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J169" s="86"/>
+      <c r="K169" s="87"/>
+    </row>
+    <row r="170" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A170" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v>1764</v>
+        <f t="shared" si="4"/>
+        <v>1762</v>
       </c>
       <c r="B170" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C170" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C170" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D170" s="28">
-        <v>1002131181764</v>
+        <v>1002131151762</v>
       </c>
       <c r="E170" s="24"/>
       <c r="F170" s="23">
@@ -6250,30 +6247,43 @@
       </c>
       <c r="J170" s="39"/>
     </row>
-    <row r="171" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B171" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="C171" s="74"/>
-      <c r="D171" s="74"/>
-      <c r="E171" s="74"/>
-      <c r="F171" s="73"/>
-      <c r="G171" s="74"/>
-      <c r="H171" s="74"/>
-      <c r="I171" s="74"/>
-      <c r="J171" s="75"/>
+        <f t="shared" si="4"/>
+        <v>1764</v>
+      </c>
+      <c r="B171" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C171" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D171" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E171" s="24"/>
+      <c r="F171" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G171" s="23">
+        <f>E171*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H171" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I171" s="72">
+        <v>120</v>
+      </c>
+      <c r="J171" s="39"/>
     </row>
     <row r="172" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="93" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B172" s="74" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C172" s="74"/>
       <c r="D172" s="74"/>
@@ -6286,131 +6296,138 @@
     </row>
     <row r="173" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="93" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B173" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="C173" s="74"/>
+      <c r="D173" s="74"/>
+      <c r="E173" s="74"/>
+      <c r="F173" s="73"/>
+      <c r="G173" s="74"/>
+      <c r="H173" s="74"/>
+      <c r="I173" s="74"/>
+      <c r="J173" s="75"/>
+    </row>
+    <row r="174" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="93" t="str">
+        <f t="shared" si="4"/>
         <v>6004</v>
       </c>
-      <c r="B173" s="47" t="s">
+      <c r="B174" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="C173" s="36" t="s">
+      <c r="C174" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D173" s="68" t="s">
+      <c r="D174" s="68" t="s">
         <v>187</v>
-      </c>
-      <c r="E173" s="24"/>
-      <c r="F173" s="23">
-        <v>1</v>
-      </c>
-      <c r="G173" s="23">
-        <f>E173*1</f>
-        <v>0</v>
-      </c>
-      <c r="H173" s="14">
-        <v>8</v>
-      </c>
-      <c r="I173" s="72">
-        <v>120</v>
-      </c>
-      <c r="J173" s="39"/>
-    </row>
-    <row r="174" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v>5417</v>
-      </c>
-      <c r="B174" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="C174" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D174" s="68" t="s">
-        <v>189</v>
       </c>
       <c r="E174" s="24"/>
       <c r="F174" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G174" s="23">
         <f>E174*1</f>
         <v>0</v>
       </c>
       <c r="H174" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I174" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J174" s="39"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A175" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v>6019</v>
+        <f t="shared" si="4"/>
+        <v>5417</v>
       </c>
       <c r="B175" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="C175" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D175" s="69" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="C175" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D175" s="68" t="s">
+        <v>189</v>
       </c>
       <c r="E175" s="24"/>
       <c r="F175" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G175" s="23">
         <f>E175*1</f>
         <v>0</v>
       </c>
       <c r="H175" s="14">
+        <v>6</v>
+      </c>
+      <c r="I175" s="72">
+        <v>90</v>
+      </c>
+      <c r="J175" s="39"/>
+    </row>
+    <row r="176" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="93" t="str">
+        <f t="shared" si="4"/>
+        <v>6019</v>
+      </c>
+      <c r="B176" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="C176" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D176" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="E176" s="24"/>
+      <c r="F176" s="23">
+        <v>1</v>
+      </c>
+      <c r="G176" s="23">
+        <f>E176*1</f>
+        <v>0</v>
+      </c>
+      <c r="H176" s="14">
         <v>12</v>
       </c>
-      <c r="I175" s="72">
+      <c r="I176" s="72">
         <v>120</v>
       </c>
-      <c r="J175" s="39"/>
-    </row>
-    <row r="176" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="77"/>
-      <c r="B176" s="77" t="s">
+      <c r="J176" s="39"/>
+    </row>
+    <row r="177" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="77"/>
+      <c r="B177" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="C176" s="16"/>
-      <c r="D176" s="48"/>
-      <c r="E176" s="17">
-        <f>SUM(E5:E175)</f>
+      <c r="C177" s="16"/>
+      <c r="D177" s="48"/>
+      <c r="E177" s="17">
+        <f>SUM(E5:E176)</f>
         <v>0</v>
       </c>
-      <c r="F176" s="17">
-        <f>SUM(F10:F175)</f>
+      <c r="F177" s="17">
+        <f>SUM(F10:F176)</f>
         <v>45.753333333333309</v>
       </c>
-      <c r="G176" s="17">
-        <f>SUM(G11:G175)</f>
+      <c r="G177" s="17">
+        <f>SUM(G11:G176)</f>
         <v>0</v>
       </c>
-      <c r="H176" s="17">
-        <f>SUM(H10:H172)</f>
+      <c r="H177" s="17">
+        <f>SUM(H10:H173)</f>
         <v>128.91</v>
       </c>
-      <c r="I176" s="17"/>
-      <c r="J176" s="17"/>
-    </row>
-    <row r="177" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="53"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="52"/>
-      <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="20"/>
-      <c r="I177" s="20"/>
-      <c r="J177" s="21"/>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I177" s="17"/>
+      <c r="J177" s="17"/>
+    </row>
+    <row r="178" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B178" s="53"/>
       <c r="C178" s="18"/>
       <c r="D178" s="52"/>
@@ -6420,7 +6437,7 @@
       <c r="I178" s="20"/>
       <c r="J178" s="21"/>
     </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B179" s="53"/>
       <c r="C179" s="18"/>
       <c r="D179" s="52"/>
@@ -6430,7 +6447,7 @@
       <c r="I179" s="20"/>
       <c r="J179" s="21"/>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B180" s="53"/>
       <c r="C180" s="18"/>
       <c r="D180" s="52"/>
@@ -6440,7 +6457,7 @@
       <c r="I180" s="20"/>
       <c r="J180" s="21"/>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B181" s="53"/>
       <c r="C181" s="18"/>
       <c r="D181" s="52"/>
@@ -6450,7 +6467,7 @@
       <c r="I181" s="20"/>
       <c r="J181" s="21"/>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B182" s="53"/>
       <c r="C182" s="18"/>
       <c r="D182" s="52"/>
@@ -6460,7 +6477,7 @@
       <c r="I182" s="20"/>
       <c r="J182" s="21"/>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B183" s="53"/>
       <c r="C183" s="18"/>
       <c r="D183" s="52"/>
@@ -6470,7 +6487,7 @@
       <c r="I183" s="20"/>
       <c r="J183" s="21"/>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B184" s="53"/>
       <c r="C184" s="18"/>
       <c r="D184" s="52"/>
@@ -6480,7 +6497,7 @@
       <c r="I184" s="20"/>
       <c r="J184" s="21"/>
     </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B185" s="53"/>
       <c r="C185" s="18"/>
       <c r="D185" s="52"/>
@@ -6490,7 +6507,7 @@
       <c r="I185" s="20"/>
       <c r="J185" s="21"/>
     </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B186" s="53"/>
       <c r="C186" s="18"/>
       <c r="D186" s="52"/>
@@ -6500,7 +6517,7 @@
       <c r="I186" s="20"/>
       <c r="J186" s="21"/>
     </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B187" s="53"/>
       <c r="C187" s="18"/>
       <c r="D187" s="52"/>
@@ -6510,7 +6527,7 @@
       <c r="I187" s="20"/>
       <c r="J187" s="21"/>
     </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B188" s="53"/>
       <c r="C188" s="18"/>
       <c r="D188" s="52"/>
@@ -6520,7 +6537,7 @@
       <c r="I188" s="20"/>
       <c r="J188" s="21"/>
     </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B189" s="53"/>
       <c r="C189" s="18"/>
       <c r="D189" s="52"/>
@@ -6530,7 +6547,7 @@
       <c r="I189" s="20"/>
       <c r="J189" s="21"/>
     </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B190" s="53"/>
       <c r="C190" s="18"/>
       <c r="D190" s="52"/>
@@ -6540,7 +6557,7 @@
       <c r="I190" s="20"/>
       <c r="J190" s="21"/>
     </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B191" s="53"/>
       <c r="C191" s="18"/>
       <c r="D191" s="52"/>
@@ -6550,7 +6567,7 @@
       <c r="I191" s="20"/>
       <c r="J191" s="21"/>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B192" s="53"/>
       <c r="C192" s="18"/>
       <c r="D192" s="52"/>
@@ -21640,17 +21657,27 @@
       <c r="I1700" s="20"/>
       <c r="J1700" s="21"/>
     </row>
+    <row r="1701" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1701" s="53"/>
+      <c r="C1701" s="18"/>
+      <c r="D1701" s="52"/>
+      <c r="F1701" s="19"/>
+      <c r="G1701" s="19"/>
+      <c r="H1701" s="20"/>
+      <c r="I1701" s="20"/>
+      <c r="J1701" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J176" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J177" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B169" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B170" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D173:D175" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D174:D176" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>
